--- a/results/comparaison/depolarization_prism.xlsx
+++ b/results/comparaison/depolarization_prism.xlsx
@@ -979,358 +979,358 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.8080641220369507</v>
+      </c>
+      <c r="C2">
+        <v>0.8911912554574394</v>
+      </c>
+      <c r="D2">
+        <v>0.8526306787296355</v>
+      </c>
+      <c r="E2">
         <v>0.8419152039871136</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>0.84419689384661</v>
+      </c>
+      <c r="G2">
+        <v>0.8416951214862013</v>
+      </c>
+      <c r="H2">
+        <v>0.8518803622509925</v>
+      </c>
+      <c r="I2">
+        <v>0.8668620805362008</v>
+      </c>
+      <c r="J2">
         <v>0.8136096443341071</v>
       </c>
-      <c r="D2">
-        <v>0.8248710735116789</v>
-      </c>
-      <c r="E2">
-        <v>0.7811864294000992</v>
-      </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.8177413587447173</v>
       </c>
-      <c r="G2">
-        <v>0.8221195730559789</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0.7895646631732525</v>
+      </c>
+      <c r="M2">
+        <v>0.7829763021269651</v>
+      </c>
+      <c r="N2">
         <v>0.846293516643063</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.8265670917671094</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>0.8060262770438784</v>
       </c>
-      <c r="K2">
-        <v>0.85914072736321</v>
-      </c>
-      <c r="L2">
-        <v>0.8028442494380583</v>
-      </c>
-      <c r="M2">
-        <v>0.84419689384661</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.8392020543037526</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.8224237276407347</v>
       </c>
-      <c r="P2">
-        <v>0.7882666822017685</v>
-      </c>
-      <c r="Q2">
-        <v>0.8559082008598633</v>
-      </c>
-      <c r="R2">
-        <v>0.7961293393300962</v>
-      </c>
       <c r="S2">
-        <v>0.8401038980329621</v>
+        <v>0.8572921215632563</v>
       </c>
       <c r="T2">
-        <v>0.8195206956016896</v>
+        <v>0.8950070857892525</v>
       </c>
       <c r="U2">
-        <v>0.8416951214862013</v>
+        <v>0.7919413931840009</v>
       </c>
       <c r="V2">
-        <v>0.8588530250957508</v>
+        <v>0.8262839125027768</v>
       </c>
       <c r="W2">
-        <v>0.8075237877107411</v>
+        <v>0.8610635410437397</v>
       </c>
       <c r="X2">
-        <v>0.8518803622509925</v>
+        <v>0.8760384097823275</v>
       </c>
       <c r="Y2">
-        <v>0.815376220113713</v>
+        <v>0.8576121232628382</v>
       </c>
       <c r="Z2">
-        <v>0.8668620805362008</v>
+        <v>0.8123615362454796</v>
       </c>
       <c r="AA2">
-        <v>0.8283213877013067</v>
+        <v>0.8022323512573015</v>
       </c>
       <c r="AB2">
-        <v>0.8754322779230616</v>
+        <v>0.938668810726064</v>
       </c>
       <c r="AC2">
-        <v>0.8321141789553647</v>
+        <v>0.7136707486697571</v>
       </c>
       <c r="AD2">
-        <v>0.8134564204593715</v>
+        <v>0.8903789264530797</v>
       </c>
       <c r="AE2">
-        <v>0.8648237830660725</v>
+        <v>0.8176962116854138</v>
       </c>
       <c r="AF2">
-        <v>0.8259454586390318</v>
+        <v>0.8623632858769877</v>
       </c>
       <c r="AG2">
-        <v>0.8654683486614747</v>
+        <v>0.7781736096459055</v>
       </c>
       <c r="AH2">
-        <v>0.7805159624234609</v>
+        <v>0.8293507371444524</v>
       </c>
       <c r="AI2">
-        <v>0.7839809245993943</v>
+        <v>0.7940121105173064</v>
       </c>
       <c r="AJ2">
-        <v>0.8729490343141326</v>
+        <v>0.8571850433876176</v>
       </c>
       <c r="AK2">
-        <v>0.8291315498077054</v>
+        <v>0.8565682344032048</v>
       </c>
       <c r="AL2">
-        <v>0.8212721621254793</v>
+        <v>0.8115820117335882</v>
       </c>
       <c r="AM2">
-        <v>0.8349130720752236</v>
+        <v>0.8336439836533629</v>
       </c>
       <c r="AN2">
-        <v>0.871133712472167</v>
+        <v>0.7800441913152305</v>
       </c>
       <c r="AO2">
-        <v>0.8087970168268154</v>
+        <v>0.8773552833502236</v>
       </c>
       <c r="AP2">
-        <v>0.8878425176691612</v>
+        <v>0.8036902159810653</v>
       </c>
       <c r="AQ2">
-        <v>0.8038814702965699</v>
+        <v>0.7711763166116872</v>
       </c>
       <c r="AR2">
-        <v>0.7844152099201158</v>
+        <v>0.8151961194357915</v>
       </c>
       <c r="AS2">
-        <v>0.9390773084108326</v>
+        <v>0.8326327888611823</v>
       </c>
       <c r="AT2">
-        <v>0.8339059305436483</v>
+        <v>0.7730397290160191</v>
       </c>
       <c r="AU2">
-        <v>0.8905281003259762</v>
+        <v>0.8053734069360018</v>
       </c>
       <c r="AV2">
-        <v>0.8729583126997329</v>
+        <v>0.8142159661808667</v>
       </c>
       <c r="AW2">
-        <v>0.8087850360455868</v>
+        <v>0.7735377100286777</v>
       </c>
       <c r="AX2">
-        <v>0.8167986003485495</v>
+        <v>0.8177439828429309</v>
       </c>
       <c r="AY2">
-        <v>0.8159543917212866</v>
+        <v>0.7554646384891371</v>
       </c>
       <c r="AZ2">
-        <v>0.8033366041923269</v>
+        <v>0.7123798734502164</v>
       </c>
       <c r="BA2">
-        <v>0.8210880153457737</v>
+        <v>0.8213161819553725</v>
       </c>
       <c r="BB2">
-        <v>0.8420754517469187</v>
+        <v>0.7982997564874885</v>
       </c>
       <c r="BC2">
-        <v>0.7885212232338352</v>
+        <v>0.7983803733602004</v>
       </c>
       <c r="BD2">
-        <v>0.7724700636926691</v>
+        <v>0.7255704973241242</v>
       </c>
       <c r="BE2">
-        <v>0.7919926941601265</v>
+        <v>0.8216302586981219</v>
       </c>
       <c r="BF2">
-        <v>0.8381079377325988</v>
+        <v>0.7670577051161106</v>
       </c>
       <c r="BG2">
-        <v>0.8365291761546251</v>
+        <v>0.7660216819515547</v>
       </c>
       <c r="BH2">
-        <v>0.8134914422531939</v>
+        <v>0.7705657255394951</v>
       </c>
       <c r="BI2">
-        <v>0.77738120636615</v>
+        <v>0.8399264707917233</v>
       </c>
       <c r="BJ2">
-        <v>0.7583079953287768</v>
+        <v>0.7485733837207468</v>
       </c>
       <c r="BK2">
-        <v>0.7360700589312322</v>
+        <v>0.8325555619619925</v>
       </c>
       <c r="BL2">
-        <v>0.7501104659452883</v>
+        <v>0.7403165421072729</v>
       </c>
       <c r="BM2">
-        <v>0.7318845904029849</v>
+        <v>0.7565757987807953</v>
       </c>
       <c r="BN2">
-        <v>0.7606267232915238</v>
+        <v>0.7661659531635376</v>
       </c>
       <c r="BO2">
-        <v>0.7852612796764058</v>
+        <v>0.8503125805158391</v>
       </c>
       <c r="BP2">
-        <v>0.8833082625086979</v>
+        <v>0.7608470735026556</v>
       </c>
       <c r="BQ2">
-        <v>0.8485100619041657</v>
+        <v>0.6772235505736783</v>
       </c>
       <c r="BR2">
-        <v>0.7488959478026332</v>
+        <v>0.7864056819497645</v>
       </c>
       <c r="BS2">
-        <v>0.7938935875368818</v>
+        <v>0.7575690189971511</v>
       </c>
       <c r="BT2">
-        <v>0.8413319357385527</v>
+        <v>0.7499889092881969</v>
       </c>
       <c r="BU2">
-        <v>0.7439982956698259</v>
+        <v>0.7911417989004772</v>
       </c>
       <c r="BV2">
-        <v>0.7915663396132794</v>
+        <v>0.7748376488514876</v>
       </c>
       <c r="BW2">
-        <v>0.7275870758547649</v>
+        <v>0.7744122475352286</v>
       </c>
       <c r="BX2">
-        <v>0.7908467570917282</v>
+        <v>0.7390999711293268</v>
       </c>
       <c r="BY2">
-        <v>0.8169067671334048</v>
+        <v>0.8264187133725559</v>
       </c>
       <c r="BZ2">
-        <v>0.8719491165001148</v>
+        <v>0.739998339953293</v>
       </c>
       <c r="CA2">
-        <v>0.8511804307858736</v>
+        <v>0.8767712746741008</v>
       </c>
       <c r="CB2">
-        <v>0.7818238052862991</v>
+        <v>0.8197793398532943</v>
       </c>
       <c r="CC2">
-        <v>0.8718588668754492</v>
+        <v>0.7719395505561329</v>
       </c>
       <c r="CD2">
-        <v>0.8002022379882138</v>
+        <v>0.8025127709673062</v>
       </c>
       <c r="CE2">
-        <v>0.797112442891492</v>
+        <v>0.7895643152770269</v>
       </c>
       <c r="CF2">
-        <v>0.7501439188506719</v>
+        <v>0.8229414824495453</v>
       </c>
       <c r="CG2">
-        <v>0.774737924176369</v>
+        <v>0.7838205223486339</v>
       </c>
       <c r="CH2">
-        <v>0.7731687022065414</v>
+        <v>0.7955595173831053</v>
       </c>
       <c r="CI2">
-        <v>0.7862609229392087</v>
+        <v>0.7642329308298539</v>
       </c>
       <c r="CJ2">
-        <v>0.7404239902065347</v>
+        <v>0.8642299778699198</v>
       </c>
       <c r="CK2">
-        <v>0.7920219341458785</v>
+        <v>0.7859118525069618</v>
       </c>
       <c r="CL2">
-        <v>0.8377159090172384</v>
+        <v>0.7833113000120736</v>
       </c>
       <c r="CM2">
-        <v>0.8003910411954137</v>
+        <v>0.7728849399150421</v>
       </c>
       <c r="CN2">
-        <v>0.794225425861028</v>
+        <v>0.8242950764065204</v>
       </c>
       <c r="CO2">
-        <v>0.757193579916514</v>
+        <v>0.8021304870142294</v>
       </c>
       <c r="CP2">
-        <v>0.7877822074041081</v>
+        <v>0.7826611263521253</v>
       </c>
       <c r="CQ2">
-        <v>0.7867791431284578</v>
+        <v>0.6862800650223564</v>
       </c>
       <c r="CR2">
-        <v>0.7616168478582348</v>
+        <v>0.80723119656854</v>
       </c>
       <c r="CS2">
-        <v>0.8047348787678084</v>
+        <v>0.7469736303218464</v>
       </c>
       <c r="CT2">
-        <v>0.8133546787961508</v>
+        <v>0.7609261667054508</v>
       </c>
       <c r="CU2">
-        <v>0.7942849509215625</v>
+        <v>0.7830105330887038</v>
       </c>
       <c r="CV2">
-        <v>0.760347613554849</v>
+        <v>0.7799679036057168</v>
       </c>
       <c r="CW2">
-        <v>0.8053093171787026</v>
+        <v>0.7953994470622587</v>
       </c>
       <c r="CX2">
         <v>0.9375486882344108</v>
       </c>
       <c r="CY2">
+        <v>0.9598245018863556</v>
+      </c>
+      <c r="CZ2">
         <v>0.9580207845330602</v>
       </c>
-      <c r="CZ2">
+      <c r="DA2">
         <v>0.9437119401980651</v>
       </c>
-      <c r="DA2">
+      <c r="DB2">
         <v>0.9576572521660356</v>
       </c>
-      <c r="DB2">
+      <c r="DC2">
+        <v>0.9582154250960554</v>
+      </c>
+      <c r="DD2">
         <v>0.9337075170392304</v>
       </c>
-      <c r="DC2">
+      <c r="DE2">
         <v>0.9492380752826776</v>
       </c>
-      <c r="DD2">
+      <c r="DF2">
         <v>0.963497218096806</v>
       </c>
-      <c r="DE2">
+      <c r="DG2">
         <v>0.9301604642422304</v>
       </c>
-      <c r="DF2">
+      <c r="DH2">
         <v>0.9470375923662104</v>
-      </c>
-      <c r="DG2">
-        <v>0.9464963866250078</v>
-      </c>
-      <c r="DH2">
-        <v>0.9495767191632644</v>
       </c>
       <c r="DI2">
         <v>0.9389713264263376</v>
       </c>
       <c r="DJ2">
+        <v>0.9464963866250078</v>
+      </c>
+      <c r="DK2">
+        <v>0.9495767191632644</v>
+      </c>
+      <c r="DL2">
         <v>0.9576979878017152</v>
       </c>
-      <c r="DK2">
+      <c r="DM2">
         <v>0.94212202468116</v>
       </c>
-      <c r="DL2">
+      <c r="DN2">
         <v>0.9554254169108451</v>
       </c>
-      <c r="DM2">
-        <v>0.937841730020716</v>
-      </c>
-      <c r="DN2">
-        <v>0.9481567949174028</v>
-      </c>
       <c r="DO2">
-        <v>0.9569607071579992</v>
+        <v>0.9484654223102792</v>
       </c>
       <c r="DP2">
         <v>0.9550678863480928</v>
@@ -1354,469 +1354,559 @@
         <v>0.9565374842502667</v>
       </c>
       <c r="DW2">
-        <v>0.9554811106441298</v>
+        <v>0.942736054585571</v>
       </c>
       <c r="DX2">
-        <v>0.9508832763851388</v>
+        <v>0.92987055794564</v>
       </c>
       <c r="DY2">
-        <v>0.9474684021227406</v>
+        <v>0.9340487530538896</v>
       </c>
       <c r="DZ2">
-        <v>0.9403448965785712</v>
+        <v>0.959146876312074</v>
       </c>
       <c r="EA2">
+        <v>0.9604818992355521</v>
+      </c>
+      <c r="EB2">
+        <v>0.9563002266490797</v>
+      </c>
+      <c r="EC2">
+        <v>0.9207496279810332</v>
+      </c>
+      <c r="ED2">
+        <v>0.919568257581576</v>
+      </c>
+      <c r="EE2">
+        <v>0.9507292390214892</v>
+      </c>
+      <c r="EF2">
+        <v>0.943976650428541</v>
+      </c>
+      <c r="EG2">
         <v>0.9365185346616176</v>
       </c>
-      <c r="EB2">
+      <c r="EH2">
+        <v>0.941776422936798</v>
+      </c>
+      <c r="EI2">
         <v>0.9531417192123284</v>
       </c>
-      <c r="EC2">
-        <v>0.8891456316615813</v>
-      </c>
-      <c r="ED2">
+      <c r="EJ2">
         <v>0.9508517369125632</v>
       </c>
-      <c r="EE2">
-        <v>0.918155293169436</v>
-      </c>
-      <c r="EF2">
+      <c r="EK2">
         <v>0.9301352314870076</v>
       </c>
-      <c r="EG2">
+      <c r="EL2">
+        <v>0.9526056478316288</v>
+      </c>
+      <c r="EM2">
+        <v>0.937815855761028</v>
+      </c>
+      <c r="EN2">
         <v>0.9230079933618336</v>
       </c>
-      <c r="EH2">
-        <v>0.9340487530538896</v>
-      </c>
-      <c r="EI2">
-        <v>0.9548109084282148</v>
-      </c>
-      <c r="EJ2">
-        <v>0.9593023590450662</v>
-      </c>
-      <c r="EK2">
-        <v>0.9222097430273972</v>
-      </c>
-      <c r="EL2">
-        <v>0.969037850816586</v>
-      </c>
-      <c r="EM2">
-        <v>0.9534706574927524</v>
-      </c>
-      <c r="EN2">
-        <v>0.9568127206783884</v>
-      </c>
       <c r="EO2">
-        <v>0.9453146616347018</v>
+        <v>0.8524046597018424</v>
       </c>
       <c r="EP2">
-        <v>0.959146876312074</v>
+        <v>0.9361000580943012</v>
       </c>
       <c r="EQ2">
-        <v>0.9563002266490797</v>
+        <v>0.9241389499708084</v>
       </c>
       <c r="ER2">
-        <v>0.9207496279810332</v>
+        <v>0.9498010158820598</v>
       </c>
       <c r="ES2">
-        <v>0.919568257581576</v>
+        <v>0.9491356423864163</v>
       </c>
       <c r="ET2">
-        <v>0.9507292390214892</v>
+        <v>0.9395852396812904</v>
       </c>
       <c r="EU2">
-        <v>0.9569855882018056</v>
+        <v>0.867600598103853</v>
       </c>
       <c r="EV2">
-        <v>0.8911428665716115</v>
+        <v>0.9453254395085348</v>
       </c>
       <c r="EW2">
+        <v>0.9207776852258728</v>
+      </c>
+      <c r="EX2">
+        <v>0.9277138453430056</v>
+      </c>
+      <c r="EY2">
+        <v>0.9470337618592684</v>
+      </c>
+      <c r="EZ2">
+        <v>0.9433584316251772</v>
+      </c>
+      <c r="FA2">
+        <v>0.9177266672776834</v>
+      </c>
+      <c r="FB2">
+        <v>0.9440414107924442</v>
+      </c>
+      <c r="FC2">
+        <v>0.9554540217402758</v>
+      </c>
+      <c r="FD2">
+        <v>0.9388197261964688</v>
+      </c>
+      <c r="FE2">
+        <v>0.8912389949365913</v>
+      </c>
+      <c r="FF2">
+        <v>0.9474031472217552</v>
+      </c>
+      <c r="FG2">
+        <v>0.9224985306796732</v>
+      </c>
+      <c r="FH2">
         <v>0.9005134441989562</v>
       </c>
-      <c r="EX2">
-        <v>0.9323418871819436</v>
-      </c>
-      <c r="EY2">
-        <v>0.9575626989075778</v>
-      </c>
-      <c r="EZ2">
-        <v>0.9317701937353916</v>
-      </c>
-      <c r="FA2">
-        <v>0.929031744384314</v>
-      </c>
-      <c r="FB2">
-        <v>0.9404209762608552</v>
-      </c>
-      <c r="FC2">
-        <v>0.9425137065831916</v>
-      </c>
-      <c r="FD2">
-        <v>0.8944486170571931</v>
-      </c>
-      <c r="FE2">
-        <v>0.9442189593381232</v>
-      </c>
-      <c r="FF2">
-        <v>0.9322680735451768</v>
-      </c>
-      <c r="FG2">
-        <v>0.9306059188495096</v>
-      </c>
-      <c r="FH2">
-        <v>0.9435248408151088</v>
-      </c>
       <c r="FI2">
-        <v>0.9261498297293228</v>
+        <v>0.936000445796754</v>
       </c>
       <c r="FJ2">
-        <v>0.9315609720104608</v>
+        <v>0.926717022486935</v>
       </c>
       <c r="FK2">
-        <v>0.9300233095289814</v>
+        <v>0.9352123775836084</v>
       </c>
       <c r="FL2">
-        <v>0.9118227744640311</v>
+        <v>0.9106625085387527</v>
       </c>
       <c r="FM2">
-        <v>0.9385366922467476</v>
+        <v>0.9501205925678494</v>
       </c>
       <c r="FN2">
-        <v>0.9437308691870778</v>
+        <v>0.9203307594643212</v>
       </c>
       <c r="FO2">
-        <v>0.9066047294526052</v>
+        <v>0.8661664521338923</v>
       </c>
       <c r="FP2">
-        <v>0.9028209207987776</v>
+        <v>0.9455070904327464</v>
       </c>
       <c r="FQ2">
-        <v>0.9271924259831336</v>
+        <v>0.9529089784095915</v>
       </c>
       <c r="FR2">
-        <v>0.9456932931973639</v>
+        <v>0.9304989791153584</v>
       </c>
       <c r="FS2">
-        <v>0.9263503387376768</v>
+        <v>0.9383007865443402</v>
       </c>
       <c r="FT2">
-        <v>0.9485043915893298</v>
+        <v>0.9430168458658944</v>
       </c>
       <c r="FU2">
-        <v>0.9185865544120312</v>
+        <v>0.8494090390526809</v>
       </c>
       <c r="FV2">
-        <v>0.8957269647837345</v>
+        <v>0.9602198962856529</v>
       </c>
       <c r="FW2">
-        <v>0.9508471969279616</v>
+        <v>0.941507232464361</v>
       </c>
       <c r="FX2">
-        <v>0.9608679094070468</v>
+        <v>0.8435831605588557</v>
       </c>
       <c r="FY2">
-        <v>0.9053700607672724</v>
+        <v>0.9494854660049796</v>
       </c>
       <c r="FZ2">
-        <v>0.9265181428350888</v>
+        <v>0.9436922318043</v>
       </c>
       <c r="GA2">
-        <v>0.934061800998046</v>
+        <v>0.95260780024457</v>
       </c>
       <c r="GB2">
-        <v>0.94349356303049</v>
+        <v>0.8846650090738623</v>
       </c>
       <c r="GC2">
-        <v>0.9460240521703061</v>
+        <v>0.8365791200933315</v>
       </c>
       <c r="GD2">
-        <v>0.9314559178978948</v>
+        <v>0.9505434082302642</v>
       </c>
       <c r="GE2">
-        <v>0.9212145521930616</v>
+        <v>0.8900627231788525</v>
       </c>
       <c r="GF2">
-        <v>0.9612879064254016</v>
+        <v>0.9107982384856844</v>
       </c>
       <c r="GG2">
-        <v>0.9422696727586092</v>
+        <v>0.9198767891777004</v>
       </c>
       <c r="GH2">
-        <v>0.9178936507493428</v>
+        <v>0.8822836385392137</v>
       </c>
       <c r="GI2">
-        <v>0.9169910480204306</v>
+        <v>0.90796606451749</v>
       </c>
       <c r="GJ2">
-        <v>0.9431506097852852</v>
+        <v>0.8508603171806147</v>
       </c>
       <c r="GK2">
-        <v>0.9350004711172292</v>
+        <v>0.9226045642529922</v>
       </c>
       <c r="GL2">
-        <v>0.9174869714192386</v>
+        <v>0.9012708822162424</v>
       </c>
       <c r="GM2">
-        <v>0.9602977371163076</v>
+        <v>0.9271655577835908</v>
       </c>
       <c r="GN2">
-        <v>0.879489965864904</v>
+        <v>0.9090262216882604</v>
       </c>
       <c r="GO2">
-        <v>0.9090262216882604</v>
+        <v>0.8911025919439359</v>
+      </c>
+      <c r="GP2">
+        <v>0.960387342928312</v>
+      </c>
+      <c r="GQ2">
+        <v>0.8921840994907945</v>
+      </c>
+      <c r="GR2">
+        <v>0.9160203847369276</v>
+      </c>
+      <c r="GS2">
+        <v>0.9392860713599251</v>
       </c>
     </row>
     <row r="3" spans="1:201">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0.9085608866707732</v>
+      </c>
+      <c r="D3">
+        <v>0.8822638728924124</v>
+      </c>
+      <c r="E3">
         <v>0.8663187012850569</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>0.8752958326199289</v>
+      </c>
+      <c r="I3">
+        <v>0.8789672809567918</v>
+      </c>
+      <c r="J3">
         <v>0.8364841220451371</v>
       </c>
-      <c r="D3">
-        <v>0.8487458616572437</v>
-      </c>
-      <c r="E3">
-        <v>0.8111328771987003</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>0.8657361083175046</v>
       </c>
-      <c r="G3">
-        <v>0.8546102965225424</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>0.8363841351492525</v>
+      </c>
+      <c r="M3">
+        <v>0.8285464816401382</v>
+      </c>
+      <c r="N3">
         <v>0.8718528784565426</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.8609501871514663</v>
       </c>
-      <c r="L3">
-        <v>0.8280486615059255</v>
-      </c>
-      <c r="N3">
-        <v>0.862617383720498</v>
-      </c>
       <c r="P3">
-        <v>0.8366241170186808</v>
-      </c>
-      <c r="R3">
-        <v>0.827659962245026</v>
-      </c>
-      <c r="S3">
-        <v>0.8827451565343843</v>
+        <v>0.8479635361901853</v>
+      </c>
+      <c r="Q3">
+        <v>0.8624010221335581</v>
       </c>
       <c r="T3">
-        <v>0.8285734152489925</v>
+        <v>0.906481145502916</v>
+      </c>
+      <c r="U3">
+        <v>0.8277967753025323</v>
       </c>
       <c r="V3">
-        <v>0.8878494182716004</v>
-      </c>
-      <c r="X3">
-        <v>0.8752958326199289</v>
+        <v>0.8568851799715189</v>
+      </c>
+      <c r="W3">
+        <v>0.8755313534003438</v>
       </c>
       <c r="Y3">
-        <v>0.8660232225061132</v>
+        <v>0.8899539807444381</v>
       </c>
       <c r="Z3">
-        <v>0.8789672809567918</v>
-      </c>
-      <c r="AB3">
-        <v>0.8527912802121858</v>
+        <v>0.8564592394437857</v>
+      </c>
+      <c r="AA3">
+        <v>0.8435691965581903</v>
       </c>
       <c r="AC3">
-        <v>0.8329077862505826</v>
+        <v>0.7505515984135577</v>
       </c>
       <c r="AD3">
-        <v>0.8481677796807581</v>
-      </c>
-      <c r="AE3">
-        <v>0.8832930786646492</v>
+        <v>0.9422874983774172</v>
       </c>
       <c r="AF3">
-        <v>0.876980940920153</v>
+        <v>0.8841529972457649</v>
       </c>
       <c r="AG3">
-        <v>0.8423691680314478</v>
-      </c>
-      <c r="AH3">
-        <v>0.7785779439659296</v>
+        <v>0.8718372944341641</v>
       </c>
       <c r="AI3">
-        <v>0.868240527966655</v>
+        <v>0.8679335947947771</v>
       </c>
       <c r="AJ3">
-        <v>0.9124721681618472</v>
+        <v>0.8982604540799668</v>
+      </c>
+      <c r="AK3">
+        <v>0.8859167975171998</v>
       </c>
       <c r="AL3">
-        <v>0.823768908801907</v>
+        <v>0.8815620703952267</v>
+      </c>
+      <c r="AM3">
+        <v>0.8270628788059686</v>
       </c>
       <c r="AN3">
-        <v>0.9322437944203396</v>
+        <v>0.8587268546749118</v>
       </c>
       <c r="AO3">
-        <v>0.8340441608075633</v>
+        <v>0.9397954667318802</v>
       </c>
       <c r="AP3">
-        <v>0.9134668195614796</v>
+        <v>0.8496162817657387</v>
       </c>
       <c r="AQ3">
-        <v>0.8772965283310736</v>
+        <v>0.8136250633277883</v>
       </c>
       <c r="AR3">
-        <v>0.8500477579661958</v>
+        <v>0.8466386636191803</v>
       </c>
       <c r="AT3">
-        <v>0.8582469088583013</v>
+        <v>0.8417559957177113</v>
+      </c>
+      <c r="AU3">
+        <v>0.8531098458425699</v>
       </c>
       <c r="AV3">
-        <v>0.8757386413647508</v>
+        <v>0.8335265936749062</v>
       </c>
       <c r="AW3">
-        <v>0.9147675664339638</v>
+        <v>0.8496292211974219</v>
       </c>
       <c r="AX3">
-        <v>0.8337794682901356</v>
+        <v>0.8266322177331819</v>
       </c>
       <c r="AY3">
-        <v>0.7557892480436115</v>
-      </c>
-      <c r="AZ3">
-        <v>0.8587394792146891</v>
+        <v>0.9088220160523782</v>
       </c>
       <c r="BA3">
-        <v>0.8677419909606661</v>
+        <v>0.8888523272867679</v>
       </c>
       <c r="BB3">
-        <v>0.87687140832983</v>
+        <v>0.852999602051977</v>
       </c>
       <c r="BC3">
-        <v>0.8313554910269073</v>
+        <v>0.8556214789658554</v>
       </c>
       <c r="BD3">
-        <v>0.8355249223783182</v>
+        <v>0.8084750630142762</v>
       </c>
       <c r="BE3">
-        <v>0.8488146111276986</v>
+        <v>0.8679211499541321</v>
       </c>
       <c r="BF3">
-        <v>0.8761580891367278</v>
-      </c>
-      <c r="BG3">
-        <v>0.8720186468902466</v>
+        <v>0.8199933485474549</v>
       </c>
       <c r="BH3">
-        <v>0.8479991972973142</v>
+        <v>0.8429452118517751</v>
       </c>
       <c r="BI3">
-        <v>0.8349200482423054</v>
+        <v>0.8795852348131712</v>
       </c>
       <c r="BJ3">
-        <v>0.8197321072094055</v>
+        <v>0.8372555214774178</v>
+      </c>
+      <c r="BK3">
+        <v>0.8696267313743284</v>
       </c>
       <c r="BL3">
-        <v>0.8387010927697867</v>
-      </c>
-      <c r="BM3">
-        <v>0.8183334675441276</v>
+        <v>0.8239617172155601</v>
+      </c>
+      <c r="BN3">
+        <v>0.8673196805753089</v>
+      </c>
+      <c r="BO3">
+        <v>0.8468771885111872</v>
+      </c>
+      <c r="BP3">
+        <v>0.812001767434405</v>
       </c>
       <c r="BQ3">
-        <v>0.8583567362500859</v>
+        <v>0.7590957917250855</v>
       </c>
       <c r="BR3">
-        <v>0.840500678006659</v>
+        <v>0.8424713264701509</v>
       </c>
       <c r="BS3">
-        <v>0.8631269940859576</v>
+        <v>0.8343469787098101</v>
       </c>
       <c r="BT3">
-        <v>0.8048337438586473</v>
+        <v>0.838051868202047</v>
       </c>
       <c r="BU3">
-        <v>0.8292404256371011</v>
+        <v>0.8362182772450815</v>
       </c>
       <c r="BV3">
-        <v>0.8305053568058521</v>
+        <v>0.8136511330359817</v>
       </c>
       <c r="BW3">
-        <v>0.810438863366963</v>
+        <v>0.8513721488352659</v>
       </c>
       <c r="BX3">
-        <v>0.8430375780213142</v>
-      </c>
-      <c r="CA3">
-        <v>0.8482352399112336</v>
+        <v>0.8215829144171395</v>
+      </c>
+      <c r="BY3">
+        <v>0.8734487736784788</v>
+      </c>
+      <c r="BZ3">
+        <v>0.8418311208656282</v>
       </c>
       <c r="CB3">
-        <v>0.8100997391255171</v>
+        <v>0.8315826456865202</v>
+      </c>
+      <c r="CC3">
+        <v>0.7393038850740574</v>
       </c>
       <c r="CD3">
-        <v>0.8577145618161668</v>
+        <v>0.8245192415513021</v>
       </c>
       <c r="CE3">
-        <v>0.828017765456855</v>
+        <v>0.7648371742473695</v>
       </c>
       <c r="CF3">
-        <v>0.8186759730053551</v>
+        <v>0.7883706258223437</v>
+      </c>
+      <c r="CG3">
+        <v>0.833932202761672</v>
       </c>
       <c r="CH3">
-        <v>0.7984189089962784</v>
+        <v>0.828468635920259</v>
+      </c>
+      <c r="CI3">
+        <v>0.721588869775236</v>
       </c>
       <c r="CK3">
-        <v>0.8354524642676081</v>
+        <v>0.8456462270184385</v>
+      </c>
+      <c r="CL3">
+        <v>0.8397241882346332</v>
       </c>
       <c r="CM3">
-        <v>0.854841092121343</v>
+        <v>0.8512716605370991</v>
       </c>
       <c r="CN3">
-        <v>0.8279936620657903</v>
+        <v>0.8310159817581483</v>
+      </c>
+      <c r="CO3">
+        <v>0.8556141716845387</v>
       </c>
       <c r="CP3">
-        <v>0.8272805105042786</v>
+        <v>0.8045407346578874</v>
+      </c>
+      <c r="CQ3">
+        <v>0.819140092089069</v>
+      </c>
+      <c r="CR3">
+        <v>0.8414518458963557</v>
       </c>
       <c r="CS3">
-        <v>0.8468982424443794</v>
+        <v>0.802745987421989</v>
+      </c>
+      <c r="CT3">
+        <v>0.669776054557329</v>
+      </c>
+      <c r="CU3">
+        <v>0.8360043322161055</v>
+      </c>
+      <c r="CV3">
+        <v>0.8569300868716987</v>
+      </c>
+      <c r="CW3">
+        <v>0.8356773551699737</v>
       </c>
       <c r="CX3">
         <v>0.9422350119731652</v>
       </c>
+      <c r="CY3">
+        <v>0.9107833115966644</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9128050304760884</v>
+      </c>
       <c r="DA3">
+        <v>0.9440271194124616</v>
+      </c>
+      <c r="DB3">
         <v>0.9539365486526132</v>
       </c>
-      <c r="DB3">
+      <c r="DC3">
+        <v>0.9485987384779492</v>
+      </c>
+      <c r="DD3">
         <v>0.937065932288594</v>
       </c>
-      <c r="DD3">
+      <c r="DE3">
+        <v>0.9042954688103064</v>
+      </c>
+      <c r="DF3">
         <v>0.9593217526325404</v>
       </c>
-      <c r="DE3">
+      <c r="DG3">
         <v>0.9372721947338832</v>
       </c>
-      <c r="DG3">
-        <v>0.9521480104771364</v>
+      <c r="DH3">
+        <v>0.933785167914588</v>
       </c>
       <c r="DI3">
         <v>0.9451820870149366</v>
       </c>
       <c r="DJ3">
+        <v>0.9521480104771364</v>
+      </c>
+      <c r="DK3">
+        <v>0.9391735390130468</v>
+      </c>
+      <c r="DL3">
         <v>0.95539021416493</v>
       </c>
-      <c r="DK3">
+      <c r="DM3">
         <v>0.9387502129361101</v>
       </c>
-      <c r="DL3">
+      <c r="DN3">
         <v>0.9596264176501916</v>
       </c>
       <c r="DO3">
-        <v>0.9504163526812184</v>
+        <v>0.9182474228194476</v>
+      </c>
+      <c r="DP3">
+        <v>0.9214193639916536</v>
+      </c>
+      <c r="DQ3">
+        <v>0.9356400839679482</v>
+      </c>
+      <c r="DR3">
+        <v>0.9352766600417752</v>
       </c>
       <c r="DS3">
         <v>0.9599946184816168</v>
       </c>
+      <c r="DT3">
+        <v>0.9450207562022898</v>
+      </c>
       <c r="DU3">
         <v>0.9565100398328574</v>
       </c>
@@ -1824,387 +1914,750 @@
         <v>0.9561324206675148</v>
       </c>
       <c r="DW3">
-        <v>0.9452493137152724</v>
+        <v>0.9155537184410804</v>
       </c>
       <c r="DX3">
-        <v>0.9581309724651283</v>
+        <v>0.9199336326072109</v>
+      </c>
+      <c r="DY3">
+        <v>0.8926841857204604</v>
+      </c>
+      <c r="DZ3">
+        <v>0.9541024025774916</v>
+      </c>
+      <c r="EB3">
+        <v>0.9613293750783268</v>
+      </c>
+      <c r="EC3">
+        <v>0.9324357062070612</v>
+      </c>
+      <c r="ED3">
+        <v>0.8836953209841252</v>
+      </c>
+      <c r="EE3">
+        <v>0.9558392341591396</v>
+      </c>
+      <c r="EF3">
+        <v>0.9507155316119984</v>
+      </c>
+      <c r="EH3">
+        <v>0.9354806707304654</v>
+      </c>
+      <c r="EI3">
+        <v>0.929683688954216</v>
+      </c>
+      <c r="EJ3">
+        <v>0.9467622614733526</v>
+      </c>
+      <c r="EK3">
+        <v>0.9535730152465252</v>
+      </c>
+      <c r="EL3">
+        <v>0.9545778572701348</v>
       </c>
       <c r="EM3">
-        <v>0.956123974652267</v>
+        <v>0.93761244447985</v>
       </c>
       <c r="EN3">
-        <v>0.9542797028980808</v>
+        <v>0.9202274745826244</v>
       </c>
       <c r="EO3">
-        <v>0.9478538301226134</v>
+        <v>0.9058368296374611</v>
       </c>
       <c r="EP3">
-        <v>0.9541024025774916</v>
+        <v>0.9521897882213444</v>
       </c>
       <c r="EQ3">
-        <v>0.9613293750783268</v>
+        <v>0.9096702061164867</v>
+      </c>
+      <c r="ER3">
+        <v>0.954116360185962</v>
       </c>
       <c r="ET3">
-        <v>0.9558392341591396</v>
+        <v>0.8852982586767205</v>
+      </c>
+      <c r="EU3">
+        <v>0.8925021323892014</v>
+      </c>
+      <c r="EV3">
+        <v>0.9515618970036503</v>
+      </c>
+      <c r="EW3">
+        <v>0.9430218885460896</v>
       </c>
       <c r="EX3">
-        <v>0.9472115866128824</v>
+        <v>0.9443847417484524</v>
       </c>
       <c r="EY3">
-        <v>0.9547042409205166</v>
+        <v>0.9172955140034814</v>
+      </c>
+      <c r="EZ3">
+        <v>0.948406971078338</v>
+      </c>
+      <c r="FA3">
+        <v>0.9089341693730342</v>
       </c>
       <c r="FB3">
-        <v>0.9552040249135816</v>
+        <v>0.961753087315726</v>
+      </c>
+      <c r="FC3">
+        <v>0.9579187768432282</v>
+      </c>
+      <c r="FD3">
+        <v>0.9570930814689966</v>
       </c>
       <c r="FE3">
-        <v>0.9558781739353416</v>
+        <v>0.9390038882829752</v>
       </c>
       <c r="FF3">
-        <v>0.9516685254599376</v>
+        <v>0.9424689466943228</v>
       </c>
       <c r="FG3">
-        <v>0.9460556716849</v>
+        <v>0.9228567908955052</v>
+      </c>
+      <c r="FI3">
+        <v>0.9506779406424052</v>
+      </c>
+      <c r="FJ3">
+        <v>0.9422332904419106</v>
       </c>
       <c r="FK3">
-        <v>0.9533213719551106</v>
+        <v>0.9506626487735323</v>
       </c>
       <c r="FL3">
-        <v>0.9184787513813352</v>
+        <v>0.940731687132948</v>
       </c>
       <c r="FM3">
-        <v>0.959215257444872</v>
+        <v>0.9484973995533704</v>
       </c>
       <c r="FN3">
-        <v>0.9529903300506768</v>
+        <v>0.9424635685737396</v>
       </c>
       <c r="FO3">
-        <v>0.9412560944240986</v>
+        <v>0.9221488388948792</v>
+      </c>
+      <c r="FP3">
+        <v>0.9538475050720476</v>
       </c>
       <c r="FQ3">
-        <v>0.949474743205366</v>
+        <v>0.9559642955735028</v>
       </c>
       <c r="FR3">
-        <v>0.9463596811827942</v>
+        <v>0.8609046096257212</v>
+      </c>
+      <c r="FS3">
+        <v>0.959557245455122</v>
+      </c>
+      <c r="FT3">
+        <v>0.9558276090614471</v>
+      </c>
+      <c r="FU3">
+        <v>0.8561564426771131</v>
+      </c>
+      <c r="FV3">
+        <v>0.9507323482572122</v>
+      </c>
+      <c r="FW3">
+        <v>0.918835376689539</v>
+      </c>
+      <c r="FX3">
+        <v>0.8494379768593466</v>
+      </c>
+      <c r="FY3">
+        <v>0.9437112904639152</v>
+      </c>
+      <c r="FZ3">
+        <v>0.9348260879246286</v>
+      </c>
+      <c r="GA3">
+        <v>0.8769011433591999</v>
+      </c>
+      <c r="GB3">
+        <v>0.8891289236713185</v>
       </c>
       <c r="GC3">
-        <v>0.9453475473492096</v>
+        <v>0.9173144627029072</v>
+      </c>
+      <c r="GD3">
+        <v>0.917856528026996</v>
+      </c>
+      <c r="GE3">
+        <v>0.8928100473165531</v>
       </c>
       <c r="GG3">
-        <v>0.9240621000403459</v>
+        <v>0.915058196277872</v>
+      </c>
+      <c r="GH3">
+        <v>0.9197392570605396</v>
+      </c>
+      <c r="GI3">
+        <v>0.9270796992080366</v>
       </c>
       <c r="GJ3">
-        <v>0.9207244483630834</v>
+        <v>0.9308626008805354</v>
+      </c>
+      <c r="GK3">
+        <v>0.9188000328510656</v>
+      </c>
+      <c r="GL3">
+        <v>0.8972758126081267</v>
+      </c>
+      <c r="GM3">
+        <v>0.9390634177824054</v>
+      </c>
+      <c r="GN3">
+        <v>0.94446717775736</v>
+      </c>
+      <c r="GO3">
+        <v>0.945641130442707</v>
+      </c>
+      <c r="GP3">
+        <v>0.9255366688208068</v>
+      </c>
+      <c r="GQ3">
+        <v>0.8632152630511081</v>
+      </c>
+      <c r="GR3">
+        <v>0.9435333262476144</v>
       </c>
     </row>
     <row r="4" spans="1:201">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.851248316819843</v>
+      </c>
       <c r="C4">
+        <v>0.900622598400066</v>
+      </c>
+      <c r="D4">
+        <v>0.8762487955395656</v>
+      </c>
+      <c r="E4">
+        <v>0.8794977812747915</v>
+      </c>
+      <c r="H4">
+        <v>0.8887859941776612</v>
+      </c>
+      <c r="I4">
+        <v>0.8888667812367745</v>
+      </c>
+      <c r="J4">
         <v>0.8428839545932082</v>
       </c>
-      <c r="D4">
-        <v>0.83781777357765</v>
-      </c>
-      <c r="E4">
-        <v>0.8162745477974168</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.8727238079027648</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>0.8463998670064596</v>
+      </c>
+      <c r="M4">
+        <v>0.8255864542069308</v>
+      </c>
+      <c r="N4">
         <v>0.8766339834227059</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.8539223727349179</v>
       </c>
-      <c r="L4">
-        <v>0.8359765487703763</v>
-      </c>
-      <c r="N4">
-        <v>0.855889179060544</v>
+      <c r="P4">
+        <v>0.8550475048239646</v>
       </c>
       <c r="Q4">
-        <v>0.8708096757769441</v>
-      </c>
-      <c r="R4">
-        <v>0.8430915359886925</v>
-      </c>
-      <c r="S4">
-        <v>0.8932314412914341</v>
+        <v>0.8556403514577811</v>
       </c>
       <c r="T4">
-        <v>0.8057719936185864</v>
+        <v>0.9030335825049004</v>
+      </c>
+      <c r="U4">
+        <v>0.8326290622736541</v>
       </c>
       <c r="V4">
-        <v>0.8831301273420231</v>
+        <v>0.8653522183363995</v>
       </c>
       <c r="W4">
-        <v>0.8514935691201275</v>
-      </c>
-      <c r="X4">
-        <v>0.8887859941776612</v>
-      </c>
-      <c r="Y4">
-        <v>0.8707751897765934</v>
+        <v>0.8804202672029591</v>
+      </c>
+      <c r="Z4">
+        <v>0.8582620659749629</v>
+      </c>
+      <c r="AA4">
+        <v>0.8935041811213054</v>
       </c>
       <c r="AC4">
-        <v>0.8520478221379694</v>
-      </c>
-      <c r="AE4">
-        <v>0.8859486196941335</v>
+        <v>0.7569397354070697</v>
+      </c>
+      <c r="AD4">
+        <v>0.9381058953979038</v>
       </c>
       <c r="AF4">
-        <v>0.9080811178444944</v>
-      </c>
-      <c r="AH4">
-        <v>0.7949375802778412</v>
+        <v>0.8854423855849776</v>
+      </c>
+      <c r="AG4">
+        <v>0.8634628384824782</v>
       </c>
       <c r="AI4">
-        <v>0.8724550205204482</v>
+        <v>0.8747338194681831</v>
       </c>
       <c r="AJ4">
-        <v>0.913129232659937</v>
+        <v>0.8995658176696789</v>
+      </c>
+      <c r="AK4">
+        <v>0.8859227041277939</v>
       </c>
       <c r="AL4">
-        <v>0.8428695090273063</v>
+        <v>0.8855674811783455</v>
+      </c>
+      <c r="AM4">
+        <v>0.8279653889225563</v>
+      </c>
+      <c r="AN4">
+        <v>0.8574026464182282</v>
       </c>
       <c r="AO4">
-        <v>0.8534760415589531</v>
+        <v>0.9375668492299848</v>
       </c>
       <c r="AP4">
-        <v>0.9108814552019496</v>
+        <v>0.8494272442628302</v>
       </c>
       <c r="AQ4">
-        <v>0.880544347707378</v>
+        <v>0.8304300981882202</v>
       </c>
       <c r="AR4">
-        <v>0.8533711804935202</v>
-      </c>
-      <c r="AS4">
-        <v>0.9328031390241044</v>
+        <v>0.8543793605309147</v>
       </c>
       <c r="AT4">
-        <v>0.8899171132813696</v>
+        <v>0.8425283617671332</v>
+      </c>
+      <c r="AU4">
+        <v>0.8660927348146343</v>
       </c>
       <c r="AV4">
-        <v>0.8800597403829917</v>
+        <v>0.8376110832619394</v>
       </c>
       <c r="AW4">
-        <v>0.9006661058555798</v>
+        <v>0.8138730417306588</v>
       </c>
       <c r="AX4">
-        <v>0.85841526217302</v>
+        <v>0.840087339086229</v>
+      </c>
+      <c r="AY4">
+        <v>0.8964700797988996</v>
       </c>
       <c r="AZ4">
-        <v>0.8620410353745784</v>
+        <v>0.7311592480054327</v>
       </c>
       <c r="BA4">
-        <v>0.8716150478021079</v>
+        <v>0.8925227245626739</v>
       </c>
       <c r="BB4">
-        <v>0.8652050953392438</v>
+        <v>0.8529765378373093</v>
       </c>
       <c r="BC4">
-        <v>0.810510385468263</v>
+        <v>0.8519907453332088</v>
       </c>
       <c r="BD4">
-        <v>0.8412980289557253</v>
+        <v>0.7825160794705028</v>
       </c>
       <c r="BE4">
-        <v>0.8627823343909851</v>
+        <v>0.8752556883299714</v>
       </c>
       <c r="BF4">
-        <v>0.8707213622332429</v>
-      </c>
-      <c r="BG4">
-        <v>0.8531426051832753</v>
+        <v>0.834026146519811</v>
       </c>
       <c r="BH4">
-        <v>0.8461999704437865</v>
+        <v>0.8505278314822458</v>
       </c>
       <c r="BI4">
-        <v>0.8462474893047121</v>
+        <v>0.8828028956636952</v>
       </c>
       <c r="BJ4">
-        <v>0.8232011364583788</v>
+        <v>0.8367861686887403</v>
+      </c>
+      <c r="BK4">
+        <v>0.8494500658443015</v>
       </c>
       <c r="BL4">
-        <v>0.83281034743107</v>
+        <v>0.8200606718321404</v>
       </c>
       <c r="BM4">
-        <v>0.8196728435652455</v>
+        <v>0.7425761701329945</v>
       </c>
       <c r="BN4">
-        <v>0.8275158773058844</v>
+        <v>0.8596046211210288</v>
       </c>
       <c r="BO4">
-        <v>0.8105428339370017</v>
+        <v>0.8154489584835711</v>
+      </c>
+      <c r="BP4">
+        <v>0.8227126037713809</v>
+      </c>
+      <c r="BQ4">
+        <v>0.6966054254272881</v>
       </c>
       <c r="BR4">
-        <v>0.8432107335826068</v>
+        <v>0.8289497062854277</v>
       </c>
       <c r="BS4">
-        <v>0.868275958483433</v>
+        <v>0.8300092419743126</v>
+      </c>
+      <c r="BT4">
+        <v>0.843393359077057</v>
       </c>
       <c r="BU4">
-        <v>0.8251196834702901</v>
+        <v>0.8282963340865968</v>
+      </c>
+      <c r="BV4">
+        <v>0.7822540532922595</v>
+      </c>
+      <c r="BW4">
+        <v>0.8319631892606574</v>
       </c>
       <c r="BX4">
-        <v>0.8283330249423106</v>
+        <v>0.8161086907584004</v>
       </c>
       <c r="BY4">
-        <v>0.8896172800845878</v>
-      </c>
-      <c r="CA4">
-        <v>0.8276620955734805</v>
+        <v>0.8704027551892296</v>
+      </c>
+      <c r="BZ4">
+        <v>0.8398592073525746</v>
+      </c>
+      <c r="CB4">
+        <v>0.8155057955682983</v>
+      </c>
+      <c r="CC4">
+        <v>0.6819442229642216</v>
+      </c>
+      <c r="CD4">
+        <v>0.7988524506360211</v>
       </c>
       <c r="CE4">
-        <v>0.8009656601740468</v>
+        <v>0.7715365262446772</v>
       </c>
       <c r="CF4">
-        <v>0.7990260841443851</v>
+        <v>0.7950682447816669</v>
+      </c>
+      <c r="CG4">
+        <v>0.8244253906031322</v>
       </c>
       <c r="CH4">
-        <v>0.7787033091055622</v>
+        <v>0.8191596138054109</v>
       </c>
       <c r="CI4">
-        <v>0.7883881722727211</v>
+        <v>0.7393472053562307</v>
       </c>
       <c r="CK4">
-        <v>0.8244765606098691</v>
+        <v>0.8447031946368458</v>
       </c>
       <c r="CL4">
-        <v>0.8508447024109697</v>
+        <v>0.8316914843738356</v>
       </c>
       <c r="CM4">
-        <v>0.8479883405003337</v>
+        <v>0.851789648194584</v>
       </c>
       <c r="CN4">
-        <v>0.8202968974216762</v>
+        <v>0.8206681466137132</v>
+      </c>
+      <c r="CO4">
+        <v>0.8318320385810475</v>
       </c>
       <c r="CP4">
-        <v>0.8297202357731445</v>
+        <v>0.8155095572221566</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8436507678217191</v>
+      </c>
+      <c r="CR4">
+        <v>0.8408938028226967</v>
       </c>
       <c r="CS4">
-        <v>0.8439927529386433</v>
+        <v>0.7670168523925907</v>
+      </c>
+      <c r="CT4">
+        <v>0.5184676218308296</v>
       </c>
       <c r="CU4">
-        <v>0.8423876786290672</v>
+        <v>0.8251556294891707</v>
+      </c>
+      <c r="CV4">
+        <v>0.8509080511481326</v>
+      </c>
+      <c r="CW4">
+        <v>0.8540825021327915</v>
       </c>
       <c r="CX4">
         <v>0.9483778910962894</v>
       </c>
+      <c r="CY4">
+        <v>0.9263269575037884</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9233550287663872</v>
+      </c>
       <c r="DA4">
+        <v>0.9534417562394258</v>
+      </c>
+      <c r="DB4">
         <v>0.95990668603299</v>
       </c>
-      <c r="DB4">
+      <c r="DD4">
         <v>0.9419834749553984</v>
       </c>
-      <c r="DD4">
+      <c r="DE4">
+        <v>0.960872334241016</v>
+      </c>
+      <c r="DF4">
         <v>0.9659657402445044</v>
       </c>
-      <c r="DE4">
+      <c r="DG4">
         <v>0.9489321066258154</v>
       </c>
-      <c r="DG4">
-        <v>0.9586512757415512</v>
+      <c r="DH4">
+        <v>0.9412113798557524</v>
       </c>
       <c r="DI4">
         <v>0.9521423004887504</v>
       </c>
       <c r="DJ4">
+        <v>0.9586512757415512</v>
+      </c>
+      <c r="DK4">
+        <v>0.924169493091987</v>
+      </c>
+      <c r="DL4">
         <v>0.9619183500903526</v>
       </c>
-      <c r="DK4">
+      <c r="DM4">
         <v>0.9497634287317512</v>
       </c>
-      <c r="DL4">
+      <c r="DN4">
         <v>0.96743509281593</v>
       </c>
       <c r="DO4">
-        <v>0.960861331210967</v>
+        <v>0.928194829266037</v>
+      </c>
+      <c r="DP4">
+        <v>0.93248444983748</v>
+      </c>
+      <c r="DQ4">
+        <v>0.8938279123475004</v>
+      </c>
+      <c r="DR4">
+        <v>0.924569921788358</v>
       </c>
       <c r="DS4">
         <v>0.9664009118968528</v>
       </c>
+      <c r="DT4">
+        <v>0.9293906414323542</v>
+      </c>
       <c r="DU4">
         <v>0.9629445816461364</v>
       </c>
       <c r="DV4">
         <v>0.962516125330275</v>
       </c>
+      <c r="DW4">
+        <v>0.9192186481847572</v>
+      </c>
       <c r="DX4">
-        <v>0.9555338961678074</v>
+        <v>0.9494740993802256</v>
+      </c>
+      <c r="DY4">
+        <v>0.8883835583684951</v>
+      </c>
+      <c r="DZ4">
+        <v>0.9597552932590452</v>
+      </c>
+      <c r="EB4">
+        <v>0.9584593183051284</v>
+      </c>
+      <c r="EC4">
+        <v>0.9409774887479614</v>
       </c>
       <c r="ED4">
+        <v>0.8925542843142104</v>
+      </c>
+      <c r="EE4">
+        <v>0.9541421000699658</v>
+      </c>
+      <c r="EF4">
+        <v>0.9561556773934414</v>
+      </c>
+      <c r="EH4">
+        <v>0.9335903640368348</v>
+      </c>
+      <c r="EI4">
+        <v>0.9325387227868694</v>
+      </c>
+      <c r="EJ4">
         <v>0.9392949420170702</v>
       </c>
-      <c r="EF4">
+      <c r="EK4">
         <v>0.9438075765559276</v>
       </c>
-      <c r="EG4">
+      <c r="EL4">
+        <v>0.9517701429100835</v>
+      </c>
+      <c r="EM4">
+        <v>0.934905606379098</v>
+      </c>
+      <c r="EN4">
         <v>0.9455998341052484</v>
       </c>
-      <c r="EI4">
-        <v>0.9492652688013812</v>
-      </c>
-      <c r="EM4">
-        <v>0.9559635757749776</v>
-      </c>
-      <c r="EN4">
-        <v>0.9512668780566824</v>
-      </c>
-      <c r="EO4">
-        <v>0.9449791400597258</v>
-      </c>
       <c r="EP4">
-        <v>0.9597552932590452</v>
+        <v>0.9517864633922364</v>
       </c>
       <c r="EQ4">
-        <v>0.9584593183051284</v>
-      </c>
-      <c r="ET4">
-        <v>0.9541421000699658</v>
+        <v>0.9492039661395558</v>
+      </c>
+      <c r="ER4">
+        <v>0.9523239050070268</v>
+      </c>
+      <c r="EV4">
+        <v>0.9516174106312189</v>
+      </c>
+      <c r="EW4">
+        <v>0.9398987511932102</v>
       </c>
       <c r="EX4">
-        <v>0.9490297325501428</v>
+        <v>0.9400835538562228</v>
       </c>
       <c r="EY4">
-        <v>0.9527587078414405</v>
+        <v>0.9060507913338176</v>
+      </c>
+      <c r="EZ4">
+        <v>0.9293500763805584</v>
+      </c>
+      <c r="FA4">
+        <v>0.9031053750280232</v>
+      </c>
+      <c r="FB4">
+        <v>0.9613758747572876</v>
+      </c>
+      <c r="FC4">
+        <v>0.9577689363479108</v>
+      </c>
+      <c r="FD4">
+        <v>0.9447210259631628</v>
       </c>
       <c r="FE4">
-        <v>0.9578444538460976</v>
+        <v>0.9380902053279117</v>
       </c>
       <c r="FF4">
-        <v>0.9422019523803676</v>
+        <v>0.9257306600099134</v>
       </c>
       <c r="FG4">
-        <v>0.941985379116683</v>
+        <v>0.9009803475367698</v>
+      </c>
+      <c r="FH4">
+        <v>0.881749901821265</v>
+      </c>
+      <c r="FI4">
+        <v>0.937171702020029</v>
+      </c>
+      <c r="FJ4">
+        <v>0.8726108865810279</v>
+      </c>
+      <c r="FK4">
+        <v>0.9508269247989104</v>
       </c>
       <c r="FL4">
-        <v>0.9181515491070562</v>
-      </c>
-      <c r="FO4">
-        <v>0.9378098642476844</v>
+        <v>0.9345255619901972</v>
+      </c>
+      <c r="FM4">
+        <v>0.9489965137432916</v>
+      </c>
+      <c r="FN4">
+        <v>0.937975292141756</v>
+      </c>
+      <c r="FP4">
+        <v>0.9540778254485588</v>
       </c>
       <c r="FQ4">
-        <v>0.9493245086490318</v>
+        <v>0.9536980180497732</v>
       </c>
       <c r="FR4">
-        <v>0.953781917412272</v>
+        <v>0.8696244687490312</v>
+      </c>
+      <c r="FS4">
+        <v>0.9599628779816116</v>
+      </c>
+      <c r="FT4">
+        <v>0.94585017913988</v>
+      </c>
+      <c r="FU4">
+        <v>0.8694641833057886</v>
+      </c>
+      <c r="FV4">
+        <v>0.947421554171594</v>
+      </c>
+      <c r="FW4">
+        <v>0.9283534156878006</v>
+      </c>
+      <c r="FX4">
+        <v>0.8717717658993417</v>
+      </c>
+      <c r="FY4">
+        <v>0.9363688310256087</v>
+      </c>
+      <c r="FZ4">
+        <v>0.9314281191377014</v>
+      </c>
+      <c r="GA4">
+        <v>0.8734669918259459</v>
       </c>
       <c r="GB4">
-        <v>0.9327125436581264</v>
+        <v>0.8993685217328631</v>
+      </c>
+      <c r="GC4">
+        <v>0.8600632054598806</v>
       </c>
       <c r="GD4">
-        <v>0.916867323254852</v>
+        <v>0.9171698101499568</v>
+      </c>
+      <c r="GE4">
+        <v>0.9085481746824404</v>
       </c>
       <c r="GG4">
-        <v>0.9309003632997404</v>
+        <v>0.9143429414588098</v>
+      </c>
+      <c r="GH4">
+        <v>0.9304670697434192</v>
+      </c>
+      <c r="GI4">
+        <v>0.8865555762891748</v>
       </c>
       <c r="GJ4">
-        <v>0.9186617130844827</v>
+        <v>0.9037184459937588</v>
+      </c>
+      <c r="GK4">
+        <v>0.8921300649799935</v>
+      </c>
+      <c r="GL4">
+        <v>0.8947836037139048</v>
+      </c>
+      <c r="GM4">
+        <v>0.9423157509583896</v>
+      </c>
+      <c r="GN4">
+        <v>0.9327972777793652</v>
+      </c>
+      <c r="GO4">
+        <v>0.931813455588584</v>
+      </c>
+      <c r="GP4">
+        <v>0.9546936770232588</v>
+      </c>
+      <c r="GQ4">
+        <v>0.8990322967502706</v>
+      </c>
+      <c r="GR4">
+        <v>0.9329503565454926</v>
+      </c>
+      <c r="GS4">
+        <v>0.9423353437496093</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -2212,304 +2665,538 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.8564035019157424</v>
+      </c>
+      <c r="C5">
+        <v>0.9136265374045009</v>
+      </c>
+      <c r="D5">
+        <v>0.8784588989474575</v>
+      </c>
+      <c r="E5">
         <v>0.8772694399092198</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>0.8840452761216513</v>
+      </c>
+      <c r="I5">
+        <v>0.8816589558985308</v>
+      </c>
+      <c r="J5">
         <v>0.8451633169858064</v>
       </c>
-      <c r="D5">
-        <v>0.8371251837859253</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.8645207516895228</v>
       </c>
-      <c r="G5">
-        <v>0.8616243837620507</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>0.8350354747981521</v>
+      </c>
+      <c r="M5">
+        <v>0.8247663288936469</v>
+      </c>
+      <c r="N5">
         <v>0.8681080215386663</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>0.8608342551861414</v>
       </c>
-      <c r="N5">
-        <v>0.8570721391897439</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>0.8555534736604975</v>
+      </c>
+      <c r="Q5">
+        <v>0.8570716767955173</v>
+      </c>
+      <c r="R5">
         <v>0.8673467217585114</v>
       </c>
-      <c r="S5">
-        <v>0.8841049989608376</v>
-      </c>
-      <c r="T5">
-        <v>0.8349356977992054</v>
+      <c r="U5">
+        <v>0.829230374033388</v>
       </c>
       <c r="V5">
-        <v>0.8862268572739022</v>
+        <v>0.8721486714792943</v>
       </c>
       <c r="W5">
-        <v>0.8564369927440366</v>
-      </c>
-      <c r="X5">
-        <v>0.8840452761216513</v>
-      </c>
-      <c r="Y5">
-        <v>0.8609650422566524</v>
+        <v>0.8669576697636592</v>
       </c>
       <c r="Z5">
-        <v>0.8816589558985308</v>
-      </c>
-      <c r="AB5">
-        <v>0.8434021767007405</v>
+        <v>0.853696505229902</v>
+      </c>
+      <c r="AA5">
+        <v>0.88377728303975</v>
       </c>
       <c r="AC5">
-        <v>0.8463789875945136</v>
-      </c>
-      <c r="AD5">
-        <v>0.8157407946375442</v>
-      </c>
-      <c r="AE5">
-        <v>0.8733923816478267</v>
-      </c>
-      <c r="AH5">
-        <v>0.7837015081724801</v>
+        <v>0.5832030699701689</v>
+      </c>
+      <c r="AF5">
+        <v>0.8758632705523569</v>
+      </c>
+      <c r="AG5">
+        <v>0.8528772547574097</v>
       </c>
       <c r="AI5">
-        <v>0.8634670437748858</v>
+        <v>0.8642488896802949</v>
       </c>
       <c r="AJ5">
-        <v>0.9031722446417316</v>
+        <v>0.8913719198514343</v>
+      </c>
+      <c r="AK5">
+        <v>0.867055889857075</v>
       </c>
       <c r="AL5">
-        <v>0.827246663225826</v>
-      </c>
-      <c r="AO5">
-        <v>0.8332376642016184</v>
+        <v>0.8890852404885544</v>
+      </c>
+      <c r="AM5">
+        <v>0.8218287031983983</v>
+      </c>
+      <c r="AN5">
+        <v>0.8464989650522197</v>
       </c>
       <c r="AP5">
-        <v>0.9021497736613447</v>
+        <v>0.8497459064681795</v>
       </c>
       <c r="AQ5">
-        <v>0.8773935240070152</v>
+        <v>0.8148500166213387</v>
       </c>
       <c r="AR5">
-        <v>0.839757289184123</v>
+        <v>0.8483295006329572</v>
       </c>
       <c r="AT5">
-        <v>0.8708786299208</v>
+        <v>0.8307640545608769</v>
+      </c>
+      <c r="AU5">
+        <v>0.8557531821970514</v>
       </c>
       <c r="AV5">
-        <v>0.8683063979200097</v>
+        <v>0.8283638274429668</v>
       </c>
       <c r="AW5">
-        <v>0.9058167079543382</v>
+        <v>0.8353035766399743</v>
       </c>
       <c r="AX5">
-        <v>0.8359818392684017</v>
+        <v>0.8321099621967769</v>
       </c>
       <c r="AY5">
-        <v>0.7638137166315114</v>
+        <v>0.9141321274908368</v>
       </c>
       <c r="AZ5">
-        <v>0.8693877119739866</v>
+        <v>0.7151291621896931</v>
       </c>
       <c r="BA5">
-        <v>0.8748429491026219</v>
+        <v>0.8969930569872462</v>
       </c>
       <c r="BB5">
-        <v>0.8527443088440361</v>
+        <v>0.8413519902864827</v>
       </c>
       <c r="BC5">
-        <v>0.8141412293698453</v>
+        <v>0.8671983551843276</v>
       </c>
       <c r="BD5">
-        <v>0.8299924095896075</v>
+        <v>0.7587639799926869</v>
       </c>
       <c r="BE5">
-        <v>0.8579112791531839</v>
+        <v>0.8759575405111834</v>
       </c>
       <c r="BF5">
-        <v>0.8670250321915749</v>
+        <v>0.8379810309836166</v>
+      </c>
+      <c r="BG5">
+        <v>0.7125949449895558</v>
       </c>
       <c r="BH5">
-        <v>0.8450055516853705</v>
+        <v>0.8427153832649722</v>
       </c>
       <c r="BI5">
-        <v>0.8473613117223189</v>
+        <v>0.8861373485154571</v>
       </c>
       <c r="BJ5">
-        <v>0.8232395436637178</v>
+        <v>0.8307794854733589</v>
+      </c>
+      <c r="BK5">
+        <v>0.8402096495123071</v>
       </c>
       <c r="BL5">
-        <v>0.8018365138829343</v>
+        <v>0.8141585543550778</v>
+      </c>
+      <c r="BM5">
+        <v>0.6890893133729326</v>
+      </c>
+      <c r="BN5">
+        <v>0.8574425697724618</v>
+      </c>
+      <c r="BO5">
+        <v>0.8057036312946719</v>
       </c>
       <c r="BP5">
-        <v>0.9098264445037116</v>
+        <v>0.8068421757258105</v>
+      </c>
+      <c r="BQ5">
+        <v>0.7012064433561509</v>
       </c>
       <c r="BR5">
-        <v>0.8420646507847245</v>
+        <v>0.8313662606334657</v>
       </c>
       <c r="BS5">
-        <v>0.8679033897910471</v>
+        <v>0.8176359531538855</v>
+      </c>
+      <c r="BT5">
+        <v>0.8024947598134249</v>
       </c>
       <c r="BU5">
-        <v>0.8059548993085255</v>
+        <v>0.8288018932010012</v>
       </c>
       <c r="BV5">
-        <v>0.8314875992437593</v>
+        <v>0.8279417870935902</v>
+      </c>
+      <c r="BW5">
+        <v>0.8268627507973156</v>
       </c>
       <c r="BX5">
-        <v>0.8235943049382457</v>
+        <v>0.8109013585214886</v>
       </c>
       <c r="BY5">
-        <v>0.8916048528459832</v>
-      </c>
-      <c r="CA5">
-        <v>0.8262544747445989</v>
+        <v>0.8422299182838721</v>
+      </c>
+      <c r="BZ5">
+        <v>0.8553644111773449</v>
+      </c>
+      <c r="CB5">
+        <v>0.8063064511671328</v>
       </c>
       <c r="CC5">
-        <v>0.805985442732205</v>
+        <v>0.6590651695413432</v>
       </c>
       <c r="CD5">
-        <v>0.866454823638779</v>
+        <v>0.8081396795554427</v>
       </c>
       <c r="CE5">
-        <v>0.8263464727655205</v>
+        <v>0.7680980935845566</v>
+      </c>
+      <c r="CF5">
+        <v>0.7741434341498388</v>
+      </c>
+      <c r="CG5">
+        <v>0.8355857328340286</v>
       </c>
       <c r="CH5">
-        <v>0.8006012282095165</v>
+        <v>0.8011838590491576</v>
+      </c>
+      <c r="CI5">
+        <v>0.6869350738214599</v>
       </c>
       <c r="CK5">
-        <v>0.8359665075579322</v>
+        <v>0.8400709631543928</v>
+      </c>
+      <c r="CL5">
+        <v>0.8189293782360665</v>
       </c>
       <c r="CM5">
-        <v>0.8588815925192281</v>
+        <v>0.850378773608137</v>
       </c>
       <c r="CN5">
-        <v>0.803680580067311</v>
+        <v>0.817671059235083</v>
+      </c>
+      <c r="CO5">
+        <v>0.8603550955341321</v>
       </c>
       <c r="CP5">
-        <v>0.8425081325993808</v>
+        <v>0.8252308226846193</v>
+      </c>
+      <c r="CQ5">
+        <v>0.849925816986449</v>
+      </c>
+      <c r="CR5">
+        <v>0.8277005882935471</v>
       </c>
       <c r="CS5">
-        <v>0.824877803625794</v>
+        <v>0.727777819402156</v>
+      </c>
+      <c r="CT5">
+        <v>0.6246610329622992</v>
       </c>
       <c r="CU5">
-        <v>0.8456968706506778</v>
+        <v>0.843244804091655</v>
+      </c>
+      <c r="CV5">
+        <v>0.858428262664009</v>
       </c>
       <c r="CW5">
-        <v>0.7428350019474641</v>
+        <v>0.849746114938427</v>
       </c>
       <c r="CX5">
         <v>0.9438815993513128</v>
       </c>
+      <c r="CY5">
+        <v>0.9152341753451754</v>
+      </c>
       <c r="CZ5">
+        <v>0.8986105880284605</v>
+      </c>
+      <c r="DA5">
         <v>0.9475239603519364</v>
       </c>
-      <c r="DA5">
+      <c r="DB5">
         <v>0.9554038505660072</v>
       </c>
-      <c r="DB5">
+      <c r="DD5">
         <v>0.9458064830420628</v>
       </c>
-      <c r="DD5">
+      <c r="DE5">
+        <v>0.9268758678106096</v>
+      </c>
+      <c r="DF5">
         <v>0.9602911188142066</v>
       </c>
-      <c r="DE5">
+      <c r="DG5">
         <v>0.9413640881931832</v>
       </c>
-      <c r="DG5">
-        <v>0.9532549816416468</v>
+      <c r="DH5">
+        <v>0.9155190179338788</v>
       </c>
       <c r="DI5">
         <v>0.9369762945547266</v>
       </c>
       <c r="DJ5">
+        <v>0.9532549816416468</v>
+      </c>
+      <c r="DK5">
+        <v>0.907024451015182</v>
+      </c>
+      <c r="DL5">
         <v>0.9553176259908897</v>
       </c>
-      <c r="DK5">
+      <c r="DM5">
         <v>0.9366722353709112</v>
       </c>
-      <c r="DL5">
+      <c r="DN5">
         <v>0.9635148084595738</v>
       </c>
       <c r="DO5">
-        <v>0.9536045920142172</v>
+        <v>0.9076971133158542</v>
+      </c>
+      <c r="DP5">
+        <v>0.9240378934887854</v>
+      </c>
+      <c r="DQ5">
+        <v>0.8786644232110221</v>
+      </c>
+      <c r="DR5">
+        <v>0.8833146492401771</v>
       </c>
       <c r="DS5">
         <v>0.9615786704162071</v>
       </c>
+      <c r="DT5">
+        <v>0.9174738983267564</v>
+      </c>
       <c r="DU5">
         <v>0.9589318510983192</v>
       </c>
       <c r="DV5">
         <v>0.9578336042609522</v>
       </c>
+      <c r="DW5">
+        <v>0.921496057345577</v>
+      </c>
       <c r="DX5">
-        <v>0.9515796334777332</v>
+        <v>0.919615792710552</v>
+      </c>
+      <c r="DY5">
+        <v>0.9039437376250464</v>
+      </c>
+      <c r="DZ5">
+        <v>0.9488064594042392</v>
+      </c>
+      <c r="EB5">
+        <v>0.9517887513092927</v>
+      </c>
+      <c r="EC5">
+        <v>0.9308168885860832</v>
+      </c>
+      <c r="ED5">
+        <v>0.8851764253707282</v>
+      </c>
+      <c r="EE5">
+        <v>0.948047572733175</v>
+      </c>
+      <c r="EF5">
+        <v>0.9478968564968828</v>
+      </c>
+      <c r="EH5">
+        <v>0.9358433153887186</v>
+      </c>
+      <c r="EI5">
+        <v>0.928710965314434</v>
+      </c>
+      <c r="EJ5">
+        <v>0.9360084970816224</v>
+      </c>
+      <c r="EK5">
+        <v>0.9410965614149792</v>
+      </c>
+      <c r="EL5">
+        <v>0.948045022353578</v>
       </c>
       <c r="EM5">
-        <v>0.950023482422665</v>
+        <v>0.9231758189515648</v>
       </c>
       <c r="EN5">
-        <v>0.948042596510672</v>
+        <v>0.9210940225841664</v>
       </c>
       <c r="EO5">
-        <v>0.9357867462118288</v>
+        <v>0.8900293968533399</v>
       </c>
       <c r="EP5">
-        <v>0.9488064594042392</v>
+        <v>0.9469316687473344</v>
       </c>
       <c r="EQ5">
-        <v>0.9517887513092927</v>
-      </c>
-      <c r="ET5">
-        <v>0.948047572733175</v>
+        <v>0.9008796047950496</v>
+      </c>
+      <c r="ER5">
+        <v>0.9471893858087044</v>
+      </c>
+      <c r="EU5">
+        <v>0.8660108182092338</v>
+      </c>
+      <c r="EV5">
+        <v>0.9493476409850136</v>
+      </c>
+      <c r="EW5">
+        <v>0.9415732341647004</v>
       </c>
       <c r="EX5">
-        <v>0.9526254539775656</v>
+        <v>0.9404166328526083</v>
       </c>
       <c r="EY5">
-        <v>0.953989816814352</v>
+        <v>0.9108238951703862</v>
+      </c>
+      <c r="EZ5">
+        <v>0.935540301181387</v>
       </c>
       <c r="FA5">
-        <v>0.942354336949846</v>
+        <v>0.8753403642325531</v>
+      </c>
+      <c r="FB5">
+        <v>0.9617185060761576</v>
+      </c>
+      <c r="FC5">
+        <v>0.9511293244337724</v>
+      </c>
+      <c r="FD5">
+        <v>0.924224478447519</v>
       </c>
       <c r="FE5">
-        <v>0.9585573053551784</v>
+        <v>0.9345175354854136</v>
+      </c>
+      <c r="FF5">
+        <v>0.9168521161283574</v>
       </c>
       <c r="FG5">
-        <v>0.9403131220380768</v>
+        <v>0.867679749174661</v>
+      </c>
+      <c r="FI5">
+        <v>0.941844886702661</v>
+      </c>
+      <c r="FJ5">
+        <v>0.910212901551492</v>
+      </c>
+      <c r="FK5">
+        <v>0.9474095281885068</v>
       </c>
       <c r="FL5">
-        <v>0.9201742321039724</v>
-      </c>
-      <c r="FO5">
-        <v>0.9395027750294488</v>
+        <v>0.9404220430310822</v>
+      </c>
+      <c r="FM5">
+        <v>0.9492941169525412</v>
+      </c>
+      <c r="FN5">
+        <v>0.9398782397034866</v>
+      </c>
+      <c r="FP5">
+        <v>0.9559635944273086</v>
       </c>
       <c r="FQ5">
-        <v>0.9500927546323428</v>
+        <v>0.9551497449736226</v>
       </c>
       <c r="FR5">
-        <v>0.9427151695304512</v>
+        <v>0.8861663613324389</v>
+      </c>
+      <c r="FS5">
+        <v>0.96005579559376</v>
+      </c>
+      <c r="FT5">
+        <v>0.9489112652452744</v>
+      </c>
+      <c r="FU5">
+        <v>0.870001893079604</v>
       </c>
       <c r="FV5">
-        <v>0.9510923324251442</v>
+        <v>0.948326952199198</v>
+      </c>
+      <c r="FW5">
+        <v>0.9218002017513388</v>
+      </c>
+      <c r="FX5">
+        <v>0.8793310699818992</v>
       </c>
       <c r="FY5">
-        <v>0.9500105473935588</v>
+        <v>0.9523566582919196</v>
+      </c>
+      <c r="FZ5">
+        <v>0.936010519610924</v>
+      </c>
+      <c r="GA5">
+        <v>0.8930912911896853</v>
+      </c>
+      <c r="GB5">
+        <v>0.9228193842615616</v>
+      </c>
+      <c r="GC5">
+        <v>0.9269907635243122</v>
       </c>
       <c r="GD5">
-        <v>0.9433239966171642</v>
+        <v>0.9212576934364588</v>
+      </c>
+      <c r="GE5">
+        <v>0.9022382047404574</v>
       </c>
       <c r="GG5">
-        <v>0.9358902489562836</v>
+        <v>0.9248444344239204</v>
+      </c>
+      <c r="GH5">
+        <v>0.8937732478214211</v>
+      </c>
+      <c r="GI5">
+        <v>0.9294654484720752</v>
+      </c>
+      <c r="GJ5">
+        <v>0.9355856319649992</v>
+      </c>
+      <c r="GK5">
+        <v>0.9270957675349298</v>
       </c>
       <c r="GL5">
-        <v>0.952281746803666</v>
+        <v>0.8994394184026292</v>
+      </c>
+      <c r="GM5">
+        <v>0.9476002207741996</v>
+      </c>
+      <c r="GN5">
+        <v>0.9527239347596352</v>
       </c>
       <c r="GO5">
-        <v>0.9527239347596352</v>
+        <v>0.9490522845368016</v>
+      </c>
+      <c r="GP5">
+        <v>0.9359862351276038</v>
+      </c>
+      <c r="GQ5">
+        <v>0.8769073324943396</v>
+      </c>
+      <c r="GR5">
+        <v>0.9521000127537268</v>
+      </c>
+      <c r="GS5">
+        <v>0.9575485275176872</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -2517,236 +3204,347 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.8650369498007603</v>
+      </c>
+      <c r="D6">
+        <v>0.9161910078794484</v>
+      </c>
+      <c r="E6">
         <v>0.8775491636475616</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>0.8638173926401479</v>
+      </c>
+      <c r="H6">
+        <v>0.879417636341664</v>
+      </c>
+      <c r="I6">
+        <v>0.8895597352697686</v>
+      </c>
+      <c r="J6">
         <v>0.8739118673823425</v>
       </c>
-      <c r="D6">
-        <v>0.8798137225542892</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>0.8555045231655648</v>
       </c>
-      <c r="G6">
-        <v>0.8722315373917164</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>0.836529743369758</v>
+      </c>
+      <c r="M6">
+        <v>0.8277500840200742</v>
+      </c>
+      <c r="N6">
         <v>0.8671825168079604</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.8671867193045872</v>
       </c>
-      <c r="J6">
-        <v>0.8217870288362787</v>
-      </c>
-      <c r="M6">
-        <v>0.8638173926401479</v>
-      </c>
-      <c r="N6">
-        <v>0.8948346017327469</v>
+      <c r="P6">
+        <v>0.8237539752629732</v>
       </c>
       <c r="Q6">
-        <v>0.8732392252980706</v>
-      </c>
-      <c r="S6">
-        <v>0.877223198053854</v>
-      </c>
-      <c r="T6">
-        <v>0.8578198129929245</v>
+        <v>0.8942971693567912</v>
+      </c>
+      <c r="V6">
+        <v>0.8577970554802654</v>
       </c>
       <c r="W6">
-        <v>0.8631005709223254</v>
-      </c>
-      <c r="X6">
-        <v>0.879417636341664</v>
+        <v>0.909009247045258</v>
       </c>
       <c r="Y6">
-        <v>0.8498214519152207</v>
+        <v>0.8928857391967158</v>
+      </c>
+      <c r="Z6">
+        <v>0.8297353245867849</v>
       </c>
       <c r="AA6">
-        <v>0.874624859756429</v>
-      </c>
-      <c r="AB6">
-        <v>0.8251327413487296</v>
+        <v>0.9004294383029752</v>
       </c>
       <c r="AC6">
-        <v>0.847446714535096</v>
+        <v>0.595715372960431</v>
       </c>
       <c r="AD6">
-        <v>0.8245928916957486</v>
+        <v>0.9453424754596276</v>
       </c>
       <c r="AE6">
-        <v>0.8793481954257067</v>
+        <v>0.8720642795608927</v>
+      </c>
+      <c r="AF6">
+        <v>0.8761290347277912</v>
       </c>
       <c r="AG6">
-        <v>0.8591621686998557</v>
+        <v>0.8813217243646925</v>
       </c>
       <c r="AH6">
-        <v>0.8044675080437862</v>
+        <v>0.8789130653270758</v>
+      </c>
+      <c r="AI6">
+        <v>0.8698125228731483</v>
       </c>
       <c r="AJ6">
-        <v>0.9087730188857104</v>
+        <v>0.8929933806412527</v>
       </c>
       <c r="AK6">
-        <v>0.8624503035244229</v>
+        <v>0.8907253185473357</v>
+      </c>
+      <c r="AL6">
+        <v>0.8902094564592041</v>
       </c>
       <c r="AM6">
-        <v>0.8828349457036213</v>
+        <v>0.8141093904600424</v>
       </c>
       <c r="AN6">
-        <v>0.937944225680176</v>
+        <v>0.8584803462170956</v>
       </c>
       <c r="AO6">
-        <v>0.8451945927024493</v>
+        <v>0.9413236404879556</v>
       </c>
       <c r="AP6">
-        <v>0.9055155502800269</v>
+        <v>0.8522510596875488</v>
       </c>
       <c r="AQ6">
-        <v>0.8848555619817505</v>
+        <v>0.8113627685882729</v>
       </c>
       <c r="AR6">
-        <v>0.8528786167626726</v>
+        <v>0.8498029060213637</v>
+      </c>
+      <c r="AS6">
+        <v>0.8831420863165085</v>
+      </c>
+      <c r="AT6">
+        <v>0.8402763330665911</v>
+      </c>
+      <c r="AU6">
+        <v>0.8607207573949326</v>
       </c>
       <c r="AV6">
-        <v>0.8671125704137292</v>
+        <v>0.8294789508216608</v>
       </c>
       <c r="AW6">
-        <v>0.879020651212036</v>
+        <v>0.8914979628067911</v>
       </c>
       <c r="AX6">
-        <v>0.8409386437342118</v>
+        <v>0.8308154979473736</v>
+      </c>
+      <c r="AY6">
+        <v>0.9080687239651664</v>
+      </c>
+      <c r="AZ6">
+        <v>0.6693129357218813</v>
       </c>
       <c r="BA6">
-        <v>0.8652532311137375</v>
+        <v>0.8585975703494699</v>
       </c>
       <c r="BB6">
-        <v>0.8416116891626244</v>
+        <v>0.8379168159222959</v>
+      </c>
+      <c r="BC6">
+        <v>0.8407866271334636</v>
       </c>
       <c r="BD6">
-        <v>0.8055713418208339</v>
+        <v>0.7731505331605282</v>
       </c>
       <c r="BE6">
-        <v>0.8450860149785516</v>
+        <v>0.8664157753856314</v>
       </c>
       <c r="BF6">
-        <v>0.857109992485348</v>
+        <v>0.8108022408093637</v>
       </c>
       <c r="BG6">
-        <v>0.8405128707525428</v>
+        <v>0.7110073418698977</v>
+      </c>
+      <c r="BH6">
+        <v>0.8169422368356083</v>
       </c>
       <c r="BI6">
-        <v>0.8251176156646411</v>
+        <v>0.8772995499280197</v>
       </c>
       <c r="BJ6">
-        <v>0.811439128704037</v>
+        <v>0.8210542808325195</v>
+      </c>
+      <c r="BK6">
+        <v>0.8356679175713082</v>
       </c>
       <c r="BL6">
-        <v>0.8172455853115392</v>
+        <v>0.8096228626853952</v>
+      </c>
+      <c r="BM6">
+        <v>0.6850610146564633</v>
+      </c>
+      <c r="BN6">
+        <v>0.8602672738671304</v>
       </c>
       <c r="BO6">
-        <v>0.8097283228130361</v>
+        <v>0.8107875812345591</v>
+      </c>
+      <c r="BP6">
+        <v>0.7786230069263669</v>
+      </c>
+      <c r="BQ6">
+        <v>0.6561266653900446</v>
       </c>
       <c r="BR6">
-        <v>0.8519910815956806</v>
+        <v>0.8228485572610766</v>
       </c>
       <c r="BS6">
-        <v>0.8608764500596275</v>
+        <v>0.8184954878462563</v>
+      </c>
+      <c r="BT6">
+        <v>0.821761745793285</v>
       </c>
       <c r="BU6">
-        <v>0.8081821796993733</v>
+        <v>0.8173296029101644</v>
       </c>
       <c r="BV6">
-        <v>0.7979955846001133</v>
+        <v>0.8037779675937506</v>
+      </c>
+      <c r="BW6">
+        <v>0.8324071932745768</v>
       </c>
       <c r="BX6">
-        <v>0.8208664644843751</v>
+        <v>0.8150411886344291</v>
       </c>
       <c r="BY6">
-        <v>0.8775299693253934</v>
+        <v>0.8383967632504884</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8387188652088615</v>
       </c>
       <c r="CA6">
-        <v>0.825472934300164</v>
+        <v>0.8341771930410395</v>
+      </c>
+      <c r="CB6">
+        <v>0.8015472070045524</v>
       </c>
       <c r="CC6">
-        <v>0.8640482164745173</v>
+        <v>0.7240118203276293</v>
       </c>
       <c r="CD6">
-        <v>0.8533011204223958</v>
+        <v>0.817074077094605</v>
       </c>
       <c r="CE6">
-        <v>0.7965510707449772</v>
+        <v>0.7550484210425362</v>
       </c>
       <c r="CF6">
-        <v>0.7975706948621379</v>
+        <v>0.7846598486385958</v>
+      </c>
+      <c r="CG6">
+        <v>0.8249479636098175</v>
       </c>
       <c r="CH6">
-        <v>0.7891835196806699</v>
+        <v>0.8271828967521523</v>
       </c>
       <c r="CI6">
-        <v>0.8203156642490501</v>
+        <v>0.6870720394166578</v>
       </c>
       <c r="CJ6">
-        <v>0.8035342103031636</v>
+        <v>0.8267293905087121</v>
       </c>
       <c r="CK6">
-        <v>0.8243289190164579</v>
+        <v>0.8314971012638794</v>
       </c>
       <c r="CL6">
-        <v>0.8038677421626189</v>
+        <v>0.8310790832733554</v>
       </c>
       <c r="CM6">
-        <v>0.8468038964707951</v>
+        <v>0.8444456826784279</v>
       </c>
       <c r="CN6">
-        <v>0.8271350208400771</v>
+        <v>0.8044339164864504</v>
+      </c>
+      <c r="CO6">
+        <v>0.8514952132441915</v>
       </c>
       <c r="CP6">
-        <v>0.799638949174835</v>
+        <v>0.7882016771994703</v>
       </c>
       <c r="CQ6">
-        <v>0.794952002087211</v>
+        <v>0.7992250998108252</v>
+      </c>
+      <c r="CR6">
+        <v>0.8232134252697791</v>
       </c>
       <c r="CS6">
-        <v>0.8323728154004194</v>
+        <v>0.7854390646931377</v>
       </c>
       <c r="CT6">
-        <v>0.7888792448856556</v>
+        <v>0.6340900813001376</v>
+      </c>
+      <c r="CU6">
+        <v>0.8215621863900919</v>
+      </c>
+      <c r="CV6">
+        <v>0.8473075149385287</v>
+      </c>
+      <c r="CW6">
+        <v>0.8398892608885238</v>
       </c>
       <c r="CX6">
         <v>0.9431210877715412</v>
       </c>
+      <c r="CY6">
+        <v>0.925691967425003</v>
+      </c>
+      <c r="CZ6">
+        <v>0.8894489015526517</v>
+      </c>
       <c r="DA6">
+        <v>0.9448926374966388</v>
+      </c>
+      <c r="DB6">
         <v>0.958412793928957</v>
       </c>
-      <c r="DB6">
+      <c r="DD6">
         <v>0.9517744304137812</v>
       </c>
-      <c r="DD6">
+      <c r="DE6">
+        <v>0.8464168053768023</v>
+      </c>
+      <c r="DF6">
         <v>0.9597152578948898</v>
       </c>
-      <c r="DE6">
+      <c r="DG6">
         <v>0.9492574230138904</v>
       </c>
-      <c r="DG6">
-        <v>0.9518589092630482</v>
+      <c r="DH6">
+        <v>0.907916794472499</v>
       </c>
       <c r="DI6">
         <v>0.930347418748676</v>
       </c>
       <c r="DJ6">
+        <v>0.9518589092630482</v>
+      </c>
+      <c r="DK6">
+        <v>0.8822330357701672</v>
+      </c>
+      <c r="DL6">
         <v>0.953824429140998</v>
       </c>
-      <c r="DL6">
+      <c r="DM6">
+        <v>0.9310951309140186</v>
+      </c>
+      <c r="DN6">
         <v>0.964750952142423</v>
       </c>
       <c r="DO6">
-        <v>0.9510770248510912</v>
+        <v>0.9052506464646064</v>
+      </c>
+      <c r="DP6">
+        <v>0.9306847395392812</v>
+      </c>
+      <c r="DQ6">
+        <v>0.8801247918112826</v>
+      </c>
+      <c r="DR6">
+        <v>0.8404070668342863</v>
       </c>
       <c r="DS6">
         <v>0.9579266931016278</v>
       </c>
+      <c r="DT6">
+        <v>0.8274368284064733</v>
+      </c>
       <c r="DU6">
         <v>0.9581178477808152</v>
       </c>
@@ -2754,405 +3552,780 @@
         <v>0.9599123737175268</v>
       </c>
       <c r="DW6">
-        <v>0.938327520780566</v>
+        <v>0.9195780894098706</v>
       </c>
       <c r="DX6">
-        <v>0.9589440913307016</v>
+        <v>0.9068695240006712</v>
+      </c>
+      <c r="DY6">
+        <v>0.891049823383647</v>
+      </c>
+      <c r="DZ6">
+        <v>0.9492424975949796</v>
+      </c>
+      <c r="EB6">
+        <v>0.9587053658540746</v>
+      </c>
+      <c r="EC6">
+        <v>0.925641572244601</v>
+      </c>
+      <c r="ED6">
+        <v>0.9147955762844718</v>
+      </c>
+      <c r="EE6">
+        <v>0.9525694735815118</v>
+      </c>
+      <c r="EF6">
+        <v>0.9521638228152458</v>
+      </c>
+      <c r="EG6">
+        <v>0.8970493490311857</v>
+      </c>
+      <c r="EH6">
+        <v>0.9264915305928744</v>
+      </c>
+      <c r="EI6">
+        <v>0.9340020983100829</v>
+      </c>
+      <c r="EJ6">
+        <v>0.9459602207767304</v>
+      </c>
+      <c r="EK6">
+        <v>0.9446933967980961</v>
+      </c>
+      <c r="EL6">
+        <v>0.9547110753469004</v>
       </c>
       <c r="EM6">
-        <v>0.9570215352363258</v>
+        <v>0.924656753428551</v>
       </c>
       <c r="EN6">
-        <v>0.9504336137551934</v>
+        <v>0.9146480176270332</v>
       </c>
       <c r="EO6">
-        <v>0.9395275335782532</v>
+        <v>0.8851979826752084</v>
       </c>
       <c r="EP6">
-        <v>0.9492424975949796</v>
+        <v>0.9548709892134724</v>
       </c>
       <c r="EQ6">
-        <v>0.9587053658540746</v>
+        <v>0.9063406001364586</v>
+      </c>
+      <c r="ER6">
+        <v>0.9535148788959044</v>
+      </c>
+      <c r="ES6">
+        <v>0.8873713462686199</v>
       </c>
       <c r="ET6">
-        <v>0.9525694735815118</v>
+        <v>0.8907733864742314</v>
+      </c>
+      <c r="EU6">
+        <v>0.844652706484487</v>
       </c>
       <c r="EV6">
-        <v>0.9268976421895558</v>
+        <v>0.9393936722679548</v>
+      </c>
+      <c r="EW6">
+        <v>0.9270255419577118</v>
       </c>
       <c r="EX6">
-        <v>0.9446049843758318</v>
+        <v>0.9335668877377822</v>
+      </c>
+      <c r="EY6">
+        <v>0.9053024883621178</v>
+      </c>
+      <c r="EZ6">
+        <v>0.9324801940423748</v>
       </c>
       <c r="FA6">
-        <v>0.9351582536965144</v>
+        <v>0.8844960008678777</v>
+      </c>
+      <c r="FB6">
+        <v>0.9535531721551924</v>
+      </c>
+      <c r="FC6">
+        <v>0.943842299041494</v>
+      </c>
+      <c r="FD6">
+        <v>0.9223862910610892</v>
       </c>
       <c r="FE6">
-        <v>0.9498989917955206</v>
+        <v>0.9269518413515794</v>
       </c>
       <c r="FF6">
-        <v>0.9445074310739168</v>
+        <v>0.9150413701143836</v>
       </c>
       <c r="FG6">
-        <v>0.9340957076865324</v>
+        <v>0.8504075875487808</v>
+      </c>
+      <c r="FH6">
+        <v>0.8719430356015804</v>
+      </c>
+      <c r="FI6">
+        <v>0.9415865862786864</v>
+      </c>
+      <c r="FJ6">
+        <v>0.8909967763044665</v>
+      </c>
+      <c r="FK6">
+        <v>0.9399158329462572</v>
       </c>
       <c r="FL6">
-        <v>0.9126567194808004</v>
+        <v>0.9319982152211868</v>
+      </c>
+      <c r="FM6">
+        <v>0.9460600951539052</v>
       </c>
       <c r="FN6">
-        <v>0.9471200195313836</v>
+        <v>0.9387077768988999</v>
       </c>
       <c r="FO6">
-        <v>0.9351768893381808</v>
+        <v>0.9089318511201396</v>
+      </c>
+      <c r="FP6">
+        <v>0.949978062175449</v>
       </c>
       <c r="FQ6">
-        <v>0.940515522151342</v>
+        <v>0.9529644876888476</v>
       </c>
       <c r="FR6">
-        <v>0.9377052908736978</v>
+        <v>0.8570414410545686</v>
+      </c>
+      <c r="FS6">
+        <v>0.9526876923079028</v>
+      </c>
+      <c r="FT6">
+        <v>0.9468478041740968</v>
+      </c>
+      <c r="FU6">
+        <v>0.8493368079971118</v>
       </c>
       <c r="FV6">
-        <v>0.941939912657809</v>
+        <v>0.9250668910213452</v>
       </c>
       <c r="FW6">
-        <v>0.948973752058012</v>
+        <v>0.9117515794850076</v>
+      </c>
+      <c r="FX6">
+        <v>0.8408224880414394</v>
       </c>
       <c r="FY6">
-        <v>0.9479561045234844</v>
+        <v>0.9447788970830132</v>
+      </c>
+      <c r="FZ6">
+        <v>0.9264903345963332</v>
+      </c>
+      <c r="GA6">
+        <v>0.8720439975124995</v>
       </c>
       <c r="GB6">
-        <v>0.947773067657342</v>
+        <v>0.8807394118395915</v>
       </c>
       <c r="GC6">
-        <v>0.9487702771717248</v>
+        <v>0.9224266845139296</v>
       </c>
       <c r="GD6">
-        <v>0.9179105549475036</v>
+        <v>0.91280836547412</v>
+      </c>
+      <c r="GE6">
+        <v>0.9035716928624906</v>
       </c>
       <c r="GG6">
-        <v>0.92464045927523</v>
+        <v>0.9203237832312994</v>
+      </c>
+      <c r="GH6">
+        <v>0.8705369244361453</v>
+      </c>
+      <c r="GI6">
+        <v>0.92064337507139</v>
       </c>
       <c r="GJ6">
-        <v>0.933367351506894</v>
+        <v>0.9229575082895732</v>
+      </c>
+      <c r="GK6">
+        <v>0.892825991673751</v>
       </c>
       <c r="GL6">
-        <v>0.9431864255512994</v>
+        <v>0.8848699241766158</v>
+      </c>
+      <c r="GM6">
+        <v>0.9200743476021196</v>
       </c>
       <c r="GN6">
-        <v>0.8861164181417303</v>
+        <v>0.9471832891811246</v>
       </c>
       <c r="GO6">
-        <v>0.9471832891811246</v>
+        <v>0.9230412650277412</v>
+      </c>
+      <c r="GP6">
+        <v>0.9087480097040476</v>
+      </c>
+      <c r="GQ6">
+        <v>0.8572867118166871</v>
+      </c>
+      <c r="GR6">
+        <v>0.9431182474504586</v>
       </c>
     </row>
     <row r="7" spans="1:201">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>0.922579032356512</v>
+      </c>
+      <c r="D7">
+        <v>0.8912484367528972</v>
+      </c>
+      <c r="E7">
         <v>0.8726446810634929</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>0.8465617077458938</v>
+      </c>
+      <c r="H7">
+        <v>0.8916271797015254</v>
+      </c>
+      <c r="J7">
         <v>0.857843501283724</v>
       </c>
-      <c r="D7">
-        <v>0.8527715902574915</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.8832251285075886</v>
       </c>
-      <c r="G7">
-        <v>0.8760564651027269</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>0.8509715205305606</v>
+      </c>
+      <c r="M7">
+        <v>0.8429812289898071</v>
+      </c>
+      <c r="N7">
         <v>0.8757666398920125</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.8778839663846079</v>
       </c>
-      <c r="L7">
-        <v>0.8410005066078414</v>
-      </c>
-      <c r="N7">
-        <v>0.8547922798553542</v>
-      </c>
-      <c r="R7">
-        <v>0.8427125126218791</v>
+      <c r="P7">
+        <v>0.8594252583484688</v>
+      </c>
+      <c r="Q7">
+        <v>0.855067573810282</v>
       </c>
       <c r="T7">
-        <v>0.8573656543028708</v>
+        <v>0.923837333452506</v>
+      </c>
+      <c r="U7">
+        <v>0.8562982387670339</v>
       </c>
       <c r="V7">
-        <v>0.8960430844800242</v>
-      </c>
-      <c r="X7">
-        <v>0.8916271797015254</v>
+        <v>0.8693512675384636</v>
+      </c>
+      <c r="W7">
+        <v>0.866312941022741</v>
       </c>
       <c r="Y7">
-        <v>0.8786884247843783</v>
+        <v>0.8924013900048211</v>
       </c>
       <c r="Z7">
-        <v>0.8809224818736962</v>
+        <v>0.8696948118660615</v>
       </c>
       <c r="AA7">
-        <v>0.8550013848633021</v>
+        <v>0.8350449685749082</v>
       </c>
       <c r="AC7">
-        <v>0.8693412637110742</v>
-      </c>
-      <c r="AD7">
-        <v>0.8310558676214476</v>
+        <v>0.6286094384782978</v>
       </c>
       <c r="AE7">
-        <v>0.8640874356270898</v>
+        <v>0.8349533293178165</v>
+      </c>
+      <c r="AF7">
+        <v>0.8820035321808771</v>
+      </c>
+      <c r="AG7">
+        <v>0.8590119813133302</v>
       </c>
       <c r="AH7">
-        <v>0.7941437819674702</v>
+        <v>0.853949302925134</v>
       </c>
       <c r="AI7">
-        <v>0.8566455771855489</v>
+        <v>0.8525461880466355</v>
       </c>
       <c r="AJ7">
-        <v>0.901109039403838</v>
+        <v>0.8900067474317486</v>
       </c>
       <c r="AK7">
-        <v>0.8706838462375606</v>
+        <v>0.8782954152778465</v>
       </c>
       <c r="AL7">
-        <v>0.8490627563069474</v>
+        <v>0.9169135523842116</v>
       </c>
       <c r="AM7">
-        <v>0.8644140955242685</v>
+        <v>0.8339065436065215</v>
       </c>
       <c r="AO7">
-        <v>0.8128378258030643</v>
+        <v>0.9321663927808006</v>
       </c>
       <c r="AP7">
-        <v>0.8993506751715404</v>
+        <v>0.8561441205960387</v>
       </c>
       <c r="AQ7">
-        <v>0.8979634391695928</v>
+        <v>0.8322238103318845</v>
       </c>
       <c r="AR7">
-        <v>0.8364387522415124</v>
+        <v>0.8778596643586971</v>
+      </c>
+      <c r="AS7">
+        <v>0.8654416403978458</v>
       </c>
       <c r="AT7">
-        <v>0.8325442748019507</v>
+        <v>0.8268929632283026</v>
+      </c>
+      <c r="AU7">
+        <v>0.8562050628815392</v>
       </c>
       <c r="AV7">
-        <v>0.8772621497249325</v>
+        <v>0.8324468256132352</v>
       </c>
       <c r="AW7">
-        <v>0.8853599599826423</v>
+        <v>0.8760919241019527</v>
       </c>
       <c r="AX7">
-        <v>0.8131834784200677</v>
+        <v>0.8545842353764499</v>
+      </c>
+      <c r="AY7">
+        <v>0.9145541886483112</v>
       </c>
       <c r="AZ7">
-        <v>0.8734348933006058</v>
+        <v>0.7308282776198416</v>
       </c>
       <c r="BA7">
-        <v>0.8764693927451221</v>
+        <v>0.9065270255699658</v>
       </c>
       <c r="BB7">
-        <v>0.8585467431471299</v>
+        <v>0.8393466046179126</v>
       </c>
       <c r="BC7">
-        <v>0.8334777058410604</v>
+        <v>0.8711835564307682</v>
+      </c>
+      <c r="BD7">
+        <v>0.8039290670140061</v>
       </c>
       <c r="BE7">
-        <v>0.8565221435667236</v>
+        <v>0.8771609813489959</v>
       </c>
       <c r="BF7">
-        <v>0.869115736911227</v>
+        <v>0.8351317387011757</v>
       </c>
       <c r="BG7">
-        <v>0.8477215247670762</v>
+        <v>0.7474750237490283</v>
+      </c>
+      <c r="BH7">
+        <v>0.8301956776180102</v>
       </c>
       <c r="BI7">
-        <v>0.8481293965762216</v>
+        <v>0.8892026895777969</v>
       </c>
       <c r="BJ7">
-        <v>0.8298032866205254</v>
+        <v>0.8405438356455108</v>
+      </c>
+      <c r="BK7">
+        <v>0.8429098040126117</v>
       </c>
       <c r="BL7">
-        <v>0.8430471626825448</v>
+        <v>0.8293328205392012</v>
       </c>
       <c r="BM7">
-        <v>0.8263722041318953</v>
+        <v>0.7312938959591158</v>
+      </c>
+      <c r="BN7">
+        <v>0.8726614188768338</v>
+      </c>
+      <c r="BO7">
+        <v>0.8572072871316663</v>
+      </c>
+      <c r="BP7">
+        <v>0.7940925047698444</v>
+      </c>
+      <c r="BQ7">
+        <v>0.7521675007224546</v>
       </c>
       <c r="BR7">
-        <v>0.8517246627531387</v>
+        <v>0.8294626517803673</v>
       </c>
       <c r="BS7">
-        <v>0.8788600320498994</v>
+        <v>0.8293083290025332</v>
       </c>
       <c r="BT7">
-        <v>0.8381202691091728</v>
+        <v>0.8588144463116638</v>
       </c>
       <c r="BU7">
-        <v>0.8220819472491153</v>
+        <v>0.8329467912956459</v>
       </c>
       <c r="BV7">
-        <v>0.831332584750555</v>
+        <v>0.8133302653600402</v>
       </c>
       <c r="BW7">
-        <v>0.8074927947282615</v>
+        <v>0.8419633273142807</v>
       </c>
       <c r="BX7">
-        <v>0.8306744101248792</v>
-      </c>
-      <c r="CA7">
-        <v>0.8390484039307291</v>
+        <v>0.8320606632494292</v>
+      </c>
+      <c r="BY7">
+        <v>0.8530559134381617</v>
+      </c>
+      <c r="BZ7">
+        <v>0.8660241458569815</v>
       </c>
       <c r="CB7">
-        <v>0.801712588300999</v>
+        <v>0.8071270031685005</v>
       </c>
       <c r="CC7">
-        <v>0.8603356973602976</v>
+        <v>0.7233935570729924</v>
       </c>
       <c r="CD7">
-        <v>0.8662641835952118</v>
+        <v>0.8265861760192632</v>
       </c>
       <c r="CE7">
-        <v>0.8190175870223955</v>
+        <v>0.7816894650981336</v>
       </c>
       <c r="CF7">
-        <v>0.7905333141509168</v>
+        <v>0.812643705783744</v>
       </c>
       <c r="CG7">
-        <v>0.8249285980552472</v>
+        <v>0.8389078713902033</v>
       </c>
       <c r="CH7">
-        <v>0.7929910890853417</v>
-      </c>
-      <c r="CJ7">
-        <v>0.819377206249394</v>
+        <v>0.8307801733953666</v>
+      </c>
+      <c r="CI7">
+        <v>0.6767362244967476</v>
       </c>
       <c r="CK7">
-        <v>0.8386788365088186</v>
+        <v>0.848058479532804</v>
+      </c>
+      <c r="CL7">
+        <v>0.8305418434283161</v>
       </c>
       <c r="CM7">
-        <v>0.8624297555553628</v>
+        <v>0.8566741338435632</v>
       </c>
       <c r="CN7">
-        <v>0.8314432001291778</v>
+        <v>0.8234298522467818</v>
+      </c>
+      <c r="CO7">
+        <v>0.8649779185933273</v>
       </c>
       <c r="CP7">
-        <v>0.8423789616535646</v>
+        <v>0.82549072025922</v>
       </c>
       <c r="CQ7">
-        <v>0.7927555292252187</v>
+        <v>0.8234589151998822</v>
+      </c>
+      <c r="CR7">
+        <v>0.8331416695186953</v>
       </c>
       <c r="CS7">
-        <v>0.8346287926579723</v>
+        <v>0.7809701887573733</v>
+      </c>
+      <c r="CT7">
+        <v>0.7270922866250337</v>
+      </c>
+      <c r="CU7">
+        <v>0.836161038596468</v>
+      </c>
+      <c r="CV7">
+        <v>0.8453930663755054</v>
       </c>
       <c r="CW7">
-        <v>0.7813934111539069</v>
+        <v>0.8813086685115237</v>
       </c>
       <c r="CX7">
         <v>0.9476290115313716</v>
       </c>
+      <c r="CY7">
+        <v>0.9098048087198062</v>
+      </c>
+      <c r="CZ7">
+        <v>0.911000681569196</v>
+      </c>
       <c r="DA7">
+        <v>0.9222824291692474</v>
+      </c>
+      <c r="DB7">
         <v>0.956626370530816</v>
       </c>
-      <c r="DB7">
+      <c r="DD7">
         <v>0.948601082333924</v>
       </c>
-      <c r="DD7">
+      <c r="DE7">
+        <v>0.9536036642320505</v>
+      </c>
+      <c r="DF7">
         <v>0.9625061084024448</v>
       </c>
-      <c r="DE7">
+      <c r="DG7">
         <v>0.9462210042379382</v>
       </c>
-      <c r="DG7">
-        <v>0.9543760607678822</v>
+      <c r="DH7">
+        <v>0.9171033183718468</v>
       </c>
       <c r="DI7">
         <v>0.9413043961559976</v>
       </c>
       <c r="DJ7">
+        <v>0.9543760607678822</v>
+      </c>
+      <c r="DK7">
+        <v>0.8962851425245937</v>
+      </c>
+      <c r="DL7">
         <v>0.9561048096097098</v>
       </c>
-      <c r="DK7">
+      <c r="DM7">
         <v>0.941792428465526</v>
       </c>
-      <c r="DL7">
+      <c r="DN7">
         <v>0.9622556064962604</v>
       </c>
       <c r="DO7">
-        <v>0.9571260495218994</v>
+        <v>0.918047252453188</v>
+      </c>
+      <c r="DP7">
+        <v>0.930936993809518</v>
+      </c>
+      <c r="DQ7">
+        <v>0.8826249348728651</v>
+      </c>
+      <c r="DR7">
+        <v>0.9037427773172982</v>
       </c>
       <c r="DS7">
         <v>0.962415376168996</v>
       </c>
+      <c r="DT7">
+        <v>0.9188049026509764</v>
+      </c>
       <c r="DU7">
         <v>0.9584330261448016</v>
       </c>
       <c r="DV7">
         <v>0.9573688966148948</v>
       </c>
+      <c r="DW7">
+        <v>0.9052915265259778</v>
+      </c>
       <c r="DX7">
-        <v>0.9451971867183708</v>
+        <v>0.9397666318480437</v>
+      </c>
+      <c r="DY7">
+        <v>0.9066630308992932</v>
+      </c>
+      <c r="DZ7">
+        <v>0.9471401979881104</v>
+      </c>
+      <c r="EA7">
+        <v>0.935392221527334</v>
+      </c>
+      <c r="EB7">
+        <v>0.9498202945801048</v>
+      </c>
+      <c r="EC7">
+        <v>0.9372168458848948</v>
+      </c>
+      <c r="ED7">
+        <v>0.9178827413451922</v>
+      </c>
+      <c r="EE7">
+        <v>0.9473956116932658</v>
+      </c>
+      <c r="EF7">
+        <v>0.9481239495231758</v>
       </c>
       <c r="EG7">
+        <v>0.919754112116199</v>
+      </c>
+      <c r="EH7">
+        <v>0.9321238521782754</v>
+      </c>
+      <c r="EI7">
+        <v>0.9290711152399408</v>
+      </c>
+      <c r="EJ7">
+        <v>0.9327508504213486</v>
+      </c>
+      <c r="EK7">
+        <v>0.938848803026334</v>
+      </c>
+      <c r="EL7">
+        <v>0.9429750507925804</v>
+      </c>
+      <c r="EM7">
+        <v>0.9263657403003041</v>
+      </c>
+      <c r="EN7">
         <v>0.9397115304516312</v>
       </c>
-      <c r="EM7">
-        <v>0.948523907339312</v>
-      </c>
-      <c r="EN7">
-        <v>0.9427219789477764</v>
-      </c>
       <c r="EO7">
-        <v>0.931729426466966</v>
+        <v>0.8830256041200215</v>
       </c>
       <c r="EP7">
-        <v>0.9471401979881104</v>
+        <v>0.9420032850302822</v>
       </c>
       <c r="EQ7">
-        <v>0.9498202945801048</v>
+        <v>0.9373647274150724</v>
+      </c>
+      <c r="ER7">
+        <v>0.9438694521076626</v>
+      </c>
+      <c r="ES7">
+        <v>0.8785190960721363</v>
       </c>
       <c r="ET7">
-        <v>0.9473956116932658</v>
+        <v>0.8755817753048878</v>
+      </c>
+      <c r="EU7">
+        <v>0.8668584019622441</v>
+      </c>
+      <c r="EV7">
+        <v>0.9442519964978796</v>
+      </c>
+      <c r="EW7">
+        <v>0.9351183323849948</v>
       </c>
       <c r="EX7">
-        <v>0.9522425663316764</v>
+        <v>0.9367256118969524</v>
       </c>
       <c r="EY7">
-        <v>0.9537446508298796</v>
+        <v>0.9078995710349256</v>
+      </c>
+      <c r="EZ7">
+        <v>0.914159168188054</v>
+      </c>
+      <c r="FA7">
+        <v>0.8881825908026413</v>
+      </c>
+      <c r="FB7">
+        <v>0.9579048703533199</v>
+      </c>
+      <c r="FC7">
+        <v>0.9488032595764098</v>
+      </c>
+      <c r="FD7">
+        <v>0.9033758907287394</v>
       </c>
       <c r="FE7">
-        <v>0.9562204335723944</v>
+        <v>0.9189457372468468</v>
       </c>
       <c r="FF7">
-        <v>0.9388851244611128</v>
+        <v>0.9060659136272584</v>
       </c>
       <c r="FG7">
-        <v>0.9372032829393784</v>
+        <v>0.8515483042113083</v>
+      </c>
+      <c r="FH7">
+        <v>0.9016839495773196</v>
+      </c>
+      <c r="FI7">
+        <v>0.9339519274845141</v>
+      </c>
+      <c r="FJ7">
+        <v>0.8808933028019221</v>
+      </c>
+      <c r="FK7">
+        <v>0.9469387422248516</v>
       </c>
       <c r="FL7">
-        <v>0.9139127043872955</v>
+        <v>0.9221392275344844</v>
+      </c>
+      <c r="FM7">
+        <v>0.949179681083266</v>
       </c>
       <c r="FN7">
-        <v>0.933670121560054</v>
-      </c>
-      <c r="FO7">
-        <v>0.937335607108444</v>
+        <v>0.940320714716455</v>
+      </c>
+      <c r="FP7">
+        <v>0.9510052630421248</v>
       </c>
       <c r="FQ7">
-        <v>0.9498918169894284</v>
+        <v>0.9542284524613732</v>
       </c>
       <c r="FR7">
-        <v>0.9399189591993208</v>
+        <v>0.8721679034482341</v>
+      </c>
+      <c r="FS7">
+        <v>0.9573050159448691</v>
+      </c>
+      <c r="FT7">
+        <v>0.9301842606737448</v>
+      </c>
+      <c r="FU7">
+        <v>0.858278957684057</v>
+      </c>
+      <c r="FV7">
+        <v>0.9321948195612024</v>
+      </c>
+      <c r="FW7">
+        <v>0.9124752403251792</v>
+      </c>
+      <c r="FX7">
+        <v>0.8497471554625989</v>
+      </c>
+      <c r="FY7">
+        <v>0.948099671315715</v>
+      </c>
+      <c r="FZ7">
+        <v>0.9229182410568776</v>
+      </c>
+      <c r="GA7">
+        <v>0.8830867307314432</v>
       </c>
       <c r="GB7">
-        <v>0.9453733282674216</v>
+        <v>0.8767960726849298</v>
       </c>
       <c r="GC7">
-        <v>0.9476956536083632</v>
+        <v>0.9086668670248286</v>
       </c>
       <c r="GD7">
-        <v>0.906053150479436</v>
+        <v>0.914315513784938</v>
+      </c>
+      <c r="GE7">
+        <v>0.8773107262652705</v>
+      </c>
+      <c r="GG7">
+        <v>0.919087220912096</v>
+      </c>
+      <c r="GH7">
+        <v>0.8959301933768949</v>
+      </c>
+      <c r="GI7">
+        <v>0.9204917357979386</v>
+      </c>
+      <c r="GJ7">
+        <v>0.927549679615604</v>
+      </c>
+      <c r="GK7">
+        <v>0.9146232662900292</v>
+      </c>
+      <c r="GL7">
+        <v>0.8848769948951942</v>
+      </c>
+      <c r="GM7">
+        <v>0.9186694650472492</v>
+      </c>
+      <c r="GN7">
+        <v>0.9472838292279668</v>
+      </c>
+      <c r="GO7">
+        <v>0.9231228521428996</v>
+      </c>
+      <c r="GP7">
+        <v>0.9138626792498812</v>
+      </c>
+      <c r="GQ7">
+        <v>0.8601785458619958</v>
+      </c>
+      <c r="GR7">
+        <v>0.9349616774338408</v>
       </c>
     </row>
   </sheetData>
